--- a/Connectivity_matrices/Simplified_connectivity_matrices.xlsx
+++ b/Connectivity_matrices/Simplified_connectivity_matrices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49B45A-76E1-479B-99D1-CE2932CC3978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF0A20-F95A-4FDD-B8FC-41A2FE48AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
@@ -24,11 +24,10 @@
     <sheet name="EPG-to-d7" sheetId="3" r:id="rId9"/>
     <sheet name="d7-to-d7" sheetId="4" r:id="rId10"/>
     <sheet name="d7-to-PEG-PEN" sheetId="5" r:id="rId11"/>
-    <sheet name="d7-to-PFL" sheetId="19" r:id="rId12"/>
-    <sheet name="PFN-to-PFL" sheetId="6" r:id="rId13"/>
-    <sheet name="PFN-to-hd" sheetId="18" r:id="rId14"/>
-    <sheet name="hd-to-PFL" sheetId="7" r:id="rId15"/>
-    <sheet name="hd-to-hd" sheetId="17" r:id="rId16"/>
+    <sheet name="PFN-to-PFL" sheetId="6" r:id="rId12"/>
+    <sheet name="PFN-to-hd" sheetId="18" r:id="rId13"/>
+    <sheet name="hd-to-PFL" sheetId="7" r:id="rId14"/>
+    <sheet name="hd-to-hd" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
   <si>
     <t>TS</t>
   </si>
@@ -458,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DC107"/>
   <sheetViews>
-    <sheetView topLeftCell="BS46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CO96" sqref="CO96"/>
+    <sheetView topLeftCell="E46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3308,35 +3307,35 @@
       </c>
       <c r="AR9">
         <f>'TR-to-PEN'!A1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AS9">
         <f>'TR-to-PEN'!B1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT9">
         <f>'TR-to-PEN'!C1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AU9">
         <f>'TR-to-PEN'!D1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AV9">
         <f>'TR-to-PEN'!E1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AW9">
         <f>'TR-to-PEN'!F1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AX9">
         <f>'TR-to-PEN'!G1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AY9">
         <f>'TR-to-PEN'!H1 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AZ9">
         <f>'TR-to-PEN'!I1 * Gains!$G$3</f>
@@ -3679,35 +3678,35 @@
       </c>
       <c r="AZ10">
         <f>'TR-to-PEN'!I2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BA10">
         <f>'TR-to-PEN'!J2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BB10">
         <f>'TR-to-PEN'!K2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BC10">
         <f>'TR-to-PEN'!L2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BD10">
         <f>'TR-to-PEN'!M2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BE10">
         <f>'TR-to-PEN'!N2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BF10">
         <f>'TR-to-PEN'!O2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BG10">
         <f>'TR-to-PEN'!P2 * Gains!$G$3</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BH10" s="1">
         <v>0</v>
@@ -4277,7 +4276,7 @@
       </c>
       <c r="AB12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
@@ -4341,7 +4340,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -4405,15 +4404,15 @@
       </c>
       <c r="BH12">
         <f>'EPG-to-d7'!A1 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BI12">
         <f>'EPG-to-d7'!B1 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ12">
         <f>'EPG-to-d7'!C1 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BK12">
         <f>'EPG-to-d7'!D1 * Gains!$H$5</f>
@@ -4433,7 +4432,7 @@
       </c>
       <c r="BO12">
         <f>'EPG-to-d7'!H1 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BP12">
         <f>'EPG-to-d7'!I1 * Gains!$H$5</f>
@@ -4652,7 +4651,7 @@
       </c>
       <c r="AC13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
@@ -4716,7 +4715,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -4776,19 +4775,19 @@
       </c>
       <c r="BH13">
         <f>'EPG-to-d7'!A2 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BI13">
         <f>'EPG-to-d7'!B2 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BJ13">
         <f>'EPG-to-d7'!C2 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BK13">
         <f>'EPG-to-d7'!D2 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BL13">
         <f>'EPG-to-d7'!E2 * Gains!$H$5</f>
@@ -5027,7 +5026,7 @@
       </c>
       <c r="AD14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
@@ -5091,7 +5090,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -5147,23 +5146,23 @@
       </c>
       <c r="BH14">
         <f>'EPG-to-d7'!A3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BI14">
         <f>'EPG-to-d7'!B3 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ14">
         <f>'EPG-to-d7'!C3 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK14">
         <f>'EPG-to-d7'!D3 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BL14">
         <f>'EPG-to-d7'!E3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BM14">
         <f>'EPG-to-d7'!F3 * Gains!$H$5</f>
@@ -5402,7 +5401,7 @@
       </c>
       <c r="AE15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
@@ -5466,7 +5465,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -5522,23 +5521,23 @@
       </c>
       <c r="BI15">
         <f>'EPG-to-d7'!B4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ15">
         <f>'EPG-to-d7'!C4 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BK15">
         <f>'EPG-to-d7'!D4 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BL15">
         <f>'EPG-to-d7'!E4 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM15">
         <f>'EPG-to-d7'!F4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BN15">
         <f>'EPG-to-d7'!G4 * Gains!$H$5</f>
@@ -5777,7 +5776,7 @@
       </c>
       <c r="AF16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
@@ -5841,7 +5840,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -5897,23 +5896,23 @@
       </c>
       <c r="BJ16">
         <f>'EPG-to-d7'!C5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BK16">
         <f>'EPG-to-d7'!D5 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BL16">
         <f>'EPG-to-d7'!E5 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BM16">
         <f>'EPG-to-d7'!F5 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BN16">
         <f>'EPG-to-d7'!G5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BO16">
         <f>'EPG-to-d7'!H5 * Gains!$H$5</f>
@@ -6152,7 +6151,7 @@
       </c>
       <c r="AG17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
@@ -6216,7 +6215,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -6272,23 +6271,23 @@
       </c>
       <c r="BK17">
         <f>'EPG-to-d7'!D6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BL17">
         <f>'EPG-to-d7'!E6 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM17">
         <f>'EPG-to-d7'!F6 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BN17">
         <f>'EPG-to-d7'!G6 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BO17">
         <f>'EPG-to-d7'!H6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BP17">
         <f>'EPG-to-d7'!I6 * Gains!$H$5</f>
@@ -6527,7 +6526,7 @@
       </c>
       <c r="AH18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
@@ -6591,7 +6590,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -6631,7 +6630,7 @@
       </c>
       <c r="BH18">
         <f>'EPG-to-d7'!A7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BI18">
         <f>'EPG-to-d7'!B7 * Gains!$H$5</f>
@@ -6647,19 +6646,19 @@
       </c>
       <c r="BL18">
         <f>'EPG-to-d7'!E7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BM18">
         <f>'EPG-to-d7'!F7 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BN18">
         <f>'EPG-to-d7'!G7 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BO18">
         <f>'EPG-to-d7'!H7 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BP18">
         <f>'EPG-to-d7'!I7 * Gains!$H$5</f>
@@ -6902,7 +6901,7 @@
       </c>
       <c r="AI19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
@@ -6966,7 +6965,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -7002,11 +7001,11 @@
       </c>
       <c r="BH19">
         <f>'EPG-to-d7'!A8 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BI19">
         <f>'EPG-to-d7'!B8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ19">
         <f>'EPG-to-d7'!C8 * Gains!$H$5</f>
@@ -7022,15 +7021,15 @@
       </c>
       <c r="BM19">
         <f>'EPG-to-d7'!F8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BN19">
         <f>'EPG-to-d7'!G8 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BO19">
         <f>'EPG-to-d7'!H8 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BP19">
         <f>'EPG-to-d7'!I8 * Gains!$H$5</f>
@@ -7277,7 +7276,7 @@
       </c>
       <c r="AJ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
@@ -7341,7 +7340,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -7405,15 +7404,15 @@
       </c>
       <c r="BP20">
         <f>'EPG-to-d7'!I9 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BQ20">
         <f>'EPG-to-d7'!J9 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BR20">
         <f>'EPG-to-d7'!K9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BS20">
         <f>'EPG-to-d7'!L9 * Gains!$H$5</f>
@@ -7429,11 +7428,11 @@
       </c>
       <c r="BV20">
         <f>'EPG-to-d7'!O9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BW20">
         <f>'EPG-to-d7'!P9 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BX20" s="3">
         <v>0</v>
@@ -7652,7 +7651,7 @@
       </c>
       <c r="AK21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AL21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
@@ -7716,7 +7715,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -7776,19 +7775,19 @@
       </c>
       <c r="BP21">
         <f>'EPG-to-d7'!I10 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BQ21">
         <f>'EPG-to-d7'!J10 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BR21">
         <f>'EPG-to-d7'!K10 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BS21">
         <f>'EPG-to-d7'!L10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BT21">
         <f>'EPG-to-d7'!M10 * Gains!$H$5</f>
@@ -7804,7 +7803,7 @@
       </c>
       <c r="BW21">
         <f>'EPG-to-d7'!P10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BX21" s="3">
         <v>0</v>
@@ -8027,7 +8026,7 @@
       </c>
       <c r="AL22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
@@ -8091,7 +8090,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -8147,23 +8146,23 @@
       </c>
       <c r="BP22">
         <f>'EPG-to-d7'!I11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BQ22">
         <f>'EPG-to-d7'!J11 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BR22">
         <f>'EPG-to-d7'!K11 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BS22">
         <f>'EPG-to-d7'!L11 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BT22">
         <f>'EPG-to-d7'!M11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BU22">
         <f>'EPG-to-d7'!N11 * Gains!$H$5</f>
@@ -8402,7 +8401,7 @@
       </c>
       <c r="AM23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
@@ -8466,7 +8465,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -8522,23 +8521,23 @@
       </c>
       <c r="BQ23">
         <f>'EPG-to-d7'!J12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BR23">
         <f>'EPG-to-d7'!K12 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BS23">
         <f>'EPG-to-d7'!L12 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BT23">
         <f>'EPG-to-d7'!M12 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BU23">
         <f>'EPG-to-d7'!N12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BV23">
         <f>'EPG-to-d7'!O12 * Gains!$H$5</f>
@@ -8777,7 +8776,7 @@
       </c>
       <c r="AN24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
@@ -8841,7 +8840,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -8897,23 +8896,23 @@
       </c>
       <c r="BR24">
         <f>'EPG-to-d7'!K13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BS24">
         <f>'EPG-to-d7'!L13 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BT24">
         <f>'EPG-to-d7'!M13 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BU24">
         <f>'EPG-to-d7'!N13 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BV24">
         <f>'EPG-to-d7'!O13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BW24">
         <f>'EPG-to-d7'!P13 * Gains!$H$5</f>
@@ -9152,7 +9151,7 @@
       </c>
       <c r="AO25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
@@ -9216,7 +9215,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -9272,23 +9271,23 @@
       </c>
       <c r="BS25">
         <f>'EPG-to-d7'!L14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BT25">
         <f>'EPG-to-d7'!M14 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BU25">
         <f>'EPG-to-d7'!N14 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BV25">
         <f>'EPG-to-d7'!O14 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BW25">
         <f>'EPG-to-d7'!P14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BX25" s="3">
         <v>0</v>
@@ -9527,7 +9526,7 @@
       </c>
       <c r="AP26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
@@ -9591,7 +9590,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -9631,7 +9630,7 @@
       </c>
       <c r="BP26">
         <f>'EPG-to-d7'!I15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BQ26">
         <f>'EPG-to-d7'!J15 * Gains!$H$5</f>
@@ -9647,19 +9646,19 @@
       </c>
       <c r="BT26">
         <f>'EPG-to-d7'!M15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BU26">
         <f>'EPG-to-d7'!N15 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BV26">
         <f>'EPG-to-d7'!O15 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BW26">
         <f>'EPG-to-d7'!P15 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BX26" s="3">
         <v>0</v>
@@ -9902,7 +9901,7 @@
       </c>
       <c r="AQ27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$G$5</f>
@@ -9966,7 +9965,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -10002,11 +10001,11 @@
       </c>
       <c r="BP27">
         <f>'EPG-to-d7'!I16 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BQ27">
         <f>'EPG-to-d7'!J16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BR27">
         <f>'EPG-to-d7'!K16 * Gains!$H$5</f>
@@ -10022,15 +10021,15 @@
       </c>
       <c r="BU27">
         <f>'EPG-to-d7'!N16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BV27">
         <f>'EPG-to-d7'!O16 * Gains!$H$5</f>
-        <v>0.9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BW27">
         <f>'EPG-to-d7'!P16 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BX27" s="3">
         <v>0</v>
@@ -10165,7 +10164,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -10508,7 +10507,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -10851,7 +10850,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -11194,7 +11193,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -11537,7 +11536,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -11880,7 +11879,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -12223,7 +12222,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -12566,7 +12565,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -12909,7 +12908,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -13252,7 +13251,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -13595,7 +13594,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -13938,7 +13937,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -14281,7 +14280,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -14624,7 +14623,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -14967,7 +14966,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -15310,7 +15309,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -15617,7 +15616,7 @@
       </c>
       <c r="S44">
         <f>'PEN-to-EPG'!H1 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <f>'PEN-to-EPG'!I1 * Gains!$E$7</f>
@@ -15649,7 +15648,7 @@
       </c>
       <c r="AA44">
         <f>'PEN-to-EPG'!P1 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="1">
         <v>0</v>
@@ -15928,7 +15927,7 @@
       </c>
       <c r="L45">
         <f>'PEN-to-EPG'!A2 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f>'PEN-to-EPG'!B2 * Gains!$E$7</f>
@@ -15960,7 +15959,7 @@
       </c>
       <c r="T45">
         <f>'PEN-to-EPG'!I2 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <f>'PEN-to-EPG'!J2 * Gains!$E$7</f>
@@ -16271,7 +16270,7 @@
       </c>
       <c r="M46">
         <f>'PEN-to-EPG'!B3 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <f>'PEN-to-EPG'!C3 * Gains!$E$7</f>
@@ -16303,7 +16302,7 @@
       </c>
       <c r="U46">
         <f>'PEN-to-EPG'!J3 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <f>'PEN-to-EPG'!K3 * Gains!$E$7</f>
@@ -16614,7 +16613,7 @@
       </c>
       <c r="N47">
         <f>'PEN-to-EPG'!C4 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <f>'PEN-to-EPG'!D4 * Gains!$E$7</f>
@@ -16646,7 +16645,7 @@
       </c>
       <c r="V47">
         <f>'PEN-to-EPG'!K4 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <f>'PEN-to-EPG'!L4 * Gains!$E$7</f>
@@ -16957,7 +16956,7 @@
       </c>
       <c r="O48">
         <f>'PEN-to-EPG'!D5 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <f>'PEN-to-EPG'!E5 * Gains!$E$7</f>
@@ -16989,7 +16988,7 @@
       </c>
       <c r="W48">
         <f>'PEN-to-EPG'!L5 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <f>'PEN-to-EPG'!M5 * Gains!$E$7</f>
@@ -17300,7 +17299,7 @@
       </c>
       <c r="P49">
         <f>'PEN-to-EPG'!E6 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <f>'PEN-to-EPG'!F6 * Gains!$E$7</f>
@@ -17332,7 +17331,7 @@
       </c>
       <c r="X49">
         <f>'PEN-to-EPG'!M6 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <f>'PEN-to-EPG'!N6 * Gains!$E$7</f>
@@ -17643,7 +17642,7 @@
       </c>
       <c r="Q50">
         <f>'PEN-to-EPG'!F7 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <f>'PEN-to-EPG'!G7 * Gains!$E$7</f>
@@ -17675,7 +17674,7 @@
       </c>
       <c r="Y50">
         <f>'PEN-to-EPG'!N7 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <f>'PEN-to-EPG'!O7 * Gains!$E$7</f>
@@ -17986,7 +17985,7 @@
       </c>
       <c r="R51">
         <f>'PEN-to-EPG'!G8 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <f>'PEN-to-EPG'!H8 * Gains!$E$7</f>
@@ -18018,7 +18017,7 @@
       </c>
       <c r="Z51">
         <f>'PEN-to-EPG'!O8 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <f>'PEN-to-EPG'!P8 * Gains!$E$7</f>
@@ -18305,7 +18304,7 @@
       </c>
       <c r="M52">
         <f>'PEN-to-EPG'!B9 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <f>'PEN-to-EPG'!C9 * Gains!$E$7</f>
@@ -18337,7 +18336,7 @@
       </c>
       <c r="U52">
         <f>'PEN-to-EPG'!J9 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <f>'PEN-to-EPG'!K9 * Gains!$E$7</f>
@@ -18648,7 +18647,7 @@
       </c>
       <c r="N53">
         <f>'PEN-to-EPG'!C10 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <f>'PEN-to-EPG'!D10 * Gains!$E$7</f>
@@ -18680,7 +18679,7 @@
       </c>
       <c r="V53">
         <f>'PEN-to-EPG'!K10 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <f>'PEN-to-EPG'!L10 * Gains!$E$7</f>
@@ -18991,7 +18990,7 @@
       </c>
       <c r="O54">
         <f>'PEN-to-EPG'!D11 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <f>'PEN-to-EPG'!E11 * Gains!$E$7</f>
@@ -19023,7 +19022,7 @@
       </c>
       <c r="W54">
         <f>'PEN-to-EPG'!L11 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <f>'PEN-to-EPG'!M11 * Gains!$E$7</f>
@@ -19334,7 +19333,7 @@
       </c>
       <c r="P55">
         <f>'PEN-to-EPG'!E12 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <f>'PEN-to-EPG'!F12 * Gains!$E$7</f>
@@ -19366,7 +19365,7 @@
       </c>
       <c r="X55">
         <f>'PEN-to-EPG'!M12 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <f>'PEN-to-EPG'!N12 * Gains!$E$7</f>
@@ -19677,7 +19676,7 @@
       </c>
       <c r="Q56">
         <f>'PEN-to-EPG'!F13 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <f>'PEN-to-EPG'!G13 * Gains!$E$7</f>
@@ -19709,7 +19708,7 @@
       </c>
       <c r="Y56">
         <f>'PEN-to-EPG'!N13 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z56">
         <f>'PEN-to-EPG'!O13 * Gains!$E$7</f>
@@ -20020,7 +20019,7 @@
       </c>
       <c r="R57">
         <f>'PEN-to-EPG'!G14 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <f>'PEN-to-EPG'!H14 * Gains!$E$7</f>
@@ -20052,7 +20051,7 @@
       </c>
       <c r="Z57">
         <f>'PEN-to-EPG'!O14 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <f>'PEN-to-EPG'!P14 * Gains!$E$7</f>
@@ -20363,7 +20362,7 @@
       </c>
       <c r="S58">
         <f>'PEN-to-EPG'!H15 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <f>'PEN-to-EPG'!I15 * Gains!$E$7</f>
@@ -20395,7 +20394,7 @@
       </c>
       <c r="AA58">
         <f>'PEN-to-EPG'!P15 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
@@ -20674,7 +20673,7 @@
       </c>
       <c r="L59">
         <f>'PEN-to-EPG'!A16 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <f>'PEN-to-EPG'!B16 * Gains!$E$7</f>
@@ -20706,7 +20705,7 @@
       </c>
       <c r="T59">
         <f>'PEN-to-EPG'!I16 * Gains!$E$7</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <f>'PEN-to-EPG'!J16 * Gains!$E$7</f>
@@ -21012,51 +21011,67 @@
         <v>0</v>
       </c>
       <c r="L60" s="1">
+        <f>'d7-to-PEG-PEN'!A1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M60" s="1">
+        <f>'d7-to-PEG-PEN'!B1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N60" s="1">
+        <f>'d7-to-PEG-PEN'!C1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O60" s="1">
+        <f>'d7-to-PEG-PEN'!D1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!E1 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="Q60" s="1">
+        <f>'d7-to-PEG-PEN'!F1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R60" s="1">
+        <f>'d7-to-PEG-PEN'!G1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S60" s="1">
+        <f>'d7-to-PEG-PEN'!H1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T60" s="1">
+        <f>'d7-to-PEG-PEN'!I1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U60" s="1">
+        <f>'d7-to-PEG-PEN'!J1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V60" s="1">
+        <f>'d7-to-PEG-PEN'!K1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W60" s="1">
+        <f>'d7-to-PEG-PEN'!L1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X60" s="1">
+        <f>'d7-to-PEG-PEN'!M1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
+        <f>'d7-to-PEG-PEN'!N1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z60" s="1">
+        <f>'d7-to-PEG-PEN'!O1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA60" s="1">
+        <f>'d7-to-PEG-PEN'!P1 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB60">
@@ -21193,31 +21208,31 @@
       </c>
       <c r="BI60">
         <f>'d7-to-d7'!B1 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
         <f>'d7-to-d7'!C1 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BK60">
         <f>'d7-to-d7'!D1 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BL60">
         <f>'d7-to-d7'!E1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BM60">
         <f>'d7-to-d7'!F1 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BN60">
         <f>'d7-to-d7'!G1 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BO60">
         <f>'d7-to-d7'!H1 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BP60">
         <f>'d7-to-d7'!I1 * Gains!$H$8</f>
@@ -21316,67 +21331,67 @@
         <v>0</v>
       </c>
       <c r="CN60">
-        <f>'d7-to-PFL'!A1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A1 * Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO60">
-        <f>'d7-to-PFL'!B1 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!B1</f>
+        <v>0</v>
       </c>
       <c r="CP60">
-        <f>'d7-to-PFL'!C1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C1</f>
         <v>0</v>
       </c>
       <c r="CQ60">
-        <f>'d7-to-PFL'!D1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D1</f>
         <v>0</v>
       </c>
       <c r="CR60">
-        <f>'d7-to-PFL'!E1 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!E1</f>
+        <v>-1</v>
       </c>
       <c r="CS60">
-        <f>'d7-to-PFL'!F1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F1</f>
         <v>0</v>
       </c>
       <c r="CT60">
-        <f>'d7-to-PFL'!G1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G1</f>
         <v>0</v>
       </c>
       <c r="CU60">
-        <f>'d7-to-PFL'!H1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H1</f>
         <v>0</v>
       </c>
       <c r="CV60">
-        <f>'d7-to-PFL'!I1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I1</f>
         <v>0</v>
       </c>
       <c r="CW60">
-        <f>'d7-to-PFL'!J1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J1</f>
         <v>0</v>
       </c>
       <c r="CX60">
-        <f>'d7-to-PFL'!K1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K1</f>
         <v>0</v>
       </c>
       <c r="CY60">
-        <f>'d7-to-PFL'!L1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L1</f>
         <v>0</v>
       </c>
       <c r="CZ60">
-        <f>'d7-to-PFL'!M1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M1</f>
         <v>0</v>
       </c>
       <c r="DA60">
-        <f>'d7-to-PFL'!N1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N1</f>
         <v>0</v>
       </c>
       <c r="DB60">
-        <f>'d7-to-PFL'!O1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O1</f>
         <v>0</v>
       </c>
       <c r="DC60">
-        <f>'d7-to-PFL'!P1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P1</f>
         <v>0</v>
       </c>
     </row>
@@ -21415,51 +21430,67 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
+        <f>'d7-to-PEG-PEN'!A2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M61" s="1">
+        <f>'d7-to-PEG-PEN'!B2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N61" s="1">
+        <f>'d7-to-PEG-PEN'!C2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O61" s="1">
+        <f>'d7-to-PEG-PEN'!D2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P61" s="1">
+        <f>'d7-to-PEG-PEN'!E2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!F2 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="R61" s="1">
+        <f>'d7-to-PEG-PEN'!G2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S61" s="1">
+        <f>'d7-to-PEG-PEN'!H2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T61" s="1">
+        <f>'d7-to-PEG-PEN'!I2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U61" s="1">
+        <f>'d7-to-PEG-PEN'!J2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V61" s="1">
+        <f>'d7-to-PEG-PEN'!K2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W61" s="1">
+        <f>'d7-to-PEG-PEN'!L2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X61" s="1">
+        <f>'d7-to-PEG-PEN'!M2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
+        <f>'d7-to-PEG-PEN'!N2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z61" s="1">
+        <f>'d7-to-PEG-PEN'!O2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA61" s="1">
+        <f>'d7-to-PEG-PEN'!P2 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB61">
@@ -21592,7 +21623,7 @@
       </c>
       <c r="BH61">
         <f>'d7-to-d7'!A2 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BI61">
         <f>'d7-to-d7'!B2 * Gains!$H$8</f>
@@ -21600,27 +21631,27 @@
       </c>
       <c r="BJ61">
         <f>'d7-to-d7'!C2 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BK61">
         <f>'d7-to-d7'!D2 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BL61">
         <f>'d7-to-d7'!E2 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BM61">
         <f>'d7-to-d7'!F2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BN61">
         <f>'d7-to-d7'!G2 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BO61">
         <f>'d7-to-d7'!H2 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BP61">
         <f>'d7-to-d7'!I2 * Gains!$H$8</f>
@@ -21719,67 +21750,67 @@
         <v>0</v>
       </c>
       <c r="CN61">
-        <f>'d7-to-PFL'!A2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A2</f>
         <v>0</v>
       </c>
       <c r="CO61">
-        <f>'d7-to-PFL'!B2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B2</f>
         <v>0</v>
       </c>
       <c r="CP61">
-        <f>'d7-to-PFL'!C2 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!C2</f>
+        <v>0</v>
       </c>
       <c r="CQ61">
-        <f>'d7-to-PFL'!D2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D2</f>
         <v>0</v>
       </c>
       <c r="CR61">
-        <f>'d7-to-PFL'!E2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E2</f>
         <v>0</v>
       </c>
       <c r="CS61">
-        <f>'d7-to-PFL'!F2 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!F2</f>
+        <v>-1</v>
       </c>
       <c r="CT61">
-        <f>'d7-to-PFL'!G2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G2</f>
         <v>0</v>
       </c>
       <c r="CU61">
-        <f>'d7-to-PFL'!H2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H2</f>
         <v>0</v>
       </c>
       <c r="CV61">
-        <f>'d7-to-PFL'!I2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I2</f>
         <v>0</v>
       </c>
       <c r="CW61">
-        <f>'d7-to-PFL'!J2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J2</f>
         <v>0</v>
       </c>
       <c r="CX61">
-        <f>'d7-to-PFL'!K2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K2</f>
         <v>0</v>
       </c>
       <c r="CY61">
-        <f>'d7-to-PFL'!L2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L2</f>
         <v>0</v>
       </c>
       <c r="CZ61">
-        <f>'d7-to-PFL'!M2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M2</f>
         <v>0</v>
       </c>
       <c r="DA61">
-        <f>'d7-to-PFL'!N2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N2</f>
         <v>0</v>
       </c>
       <c r="DB61">
-        <f>'d7-to-PFL'!O2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O2</f>
         <v>0</v>
       </c>
       <c r="DC61">
-        <f>'d7-to-PFL'!P2 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P2</f>
         <v>0</v>
       </c>
     </row>
@@ -21818,51 +21849,67 @@
         <v>0</v>
       </c>
       <c r="L62" s="1">
+        <f>'d7-to-PEG-PEN'!A3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M62" s="1">
+        <f>'d7-to-PEG-PEN'!B3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N62" s="1">
+        <f>'d7-to-PEG-PEN'!C3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O62" s="1">
+        <f>'d7-to-PEG-PEN'!D3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P62" s="1">
+        <f>'d7-to-PEG-PEN'!E3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
+        <f>'d7-to-PEG-PEN'!F3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!G3 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="S62" s="1">
+        <f>'d7-to-PEG-PEN'!H3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T62" s="1">
+        <f>'d7-to-PEG-PEN'!I3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U62" s="1">
+        <f>'d7-to-PEG-PEN'!J3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V62" s="1">
+        <f>'d7-to-PEG-PEN'!K3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W62" s="1">
+        <f>'d7-to-PEG-PEN'!L3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X62" s="1">
+        <f>'d7-to-PEG-PEN'!M3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
+        <f>'d7-to-PEG-PEN'!N3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z62" s="1">
+        <f>'d7-to-PEG-PEN'!O3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA62" s="1">
+        <f>'d7-to-PEG-PEN'!P3 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB62">
@@ -21995,11 +22042,11 @@
       </c>
       <c r="BH62">
         <f>'d7-to-d7'!A3 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BI62">
         <f>'d7-to-d7'!B3 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
         <f>'d7-to-d7'!C3 * Gains!$H$8</f>
@@ -22007,23 +22054,23 @@
       </c>
       <c r="BK62">
         <f>'d7-to-d7'!D3 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BL62">
         <f>'d7-to-d7'!E3 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BM62">
         <f>'d7-to-d7'!F3 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BN62">
         <f>'d7-to-d7'!G3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BO62">
         <f>'d7-to-d7'!H3 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BP62">
         <f>'d7-to-d7'!I3 * Gains!$H$8</f>
@@ -22122,67 +22169,67 @@
         <v>0</v>
       </c>
       <c r="CN62">
-        <f>'d7-to-PFL'!A3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A3</f>
         <v>0</v>
       </c>
       <c r="CO62">
-        <f>'d7-to-PFL'!B3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B3</f>
         <v>0</v>
       </c>
       <c r="CP62">
-        <f>'d7-to-PFL'!C3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C3</f>
         <v>0</v>
       </c>
       <c r="CQ62">
-        <f>'d7-to-PFL'!D3 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!D3</f>
+        <v>0</v>
       </c>
       <c r="CR62">
-        <f>'d7-to-PFL'!E3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E3</f>
         <v>0</v>
       </c>
       <c r="CS62">
-        <f>'d7-to-PFL'!F3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F3</f>
         <v>0</v>
       </c>
       <c r="CT62">
-        <f>'d7-to-PFL'!G3 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!G3</f>
+        <v>-1</v>
       </c>
       <c r="CU62">
-        <f>'d7-to-PFL'!H3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H3</f>
         <v>0</v>
       </c>
       <c r="CV62">
-        <f>'d7-to-PFL'!I3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I3</f>
         <v>0</v>
       </c>
       <c r="CW62">
-        <f>'d7-to-PFL'!J3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J3</f>
         <v>0</v>
       </c>
       <c r="CX62">
-        <f>'d7-to-PFL'!K3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K3</f>
         <v>0</v>
       </c>
       <c r="CY62">
-        <f>'d7-to-PFL'!L3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L3</f>
         <v>0</v>
       </c>
       <c r="CZ62">
-        <f>'d7-to-PFL'!M3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M3</f>
         <v>0</v>
       </c>
       <c r="DA62">
-        <f>'d7-to-PFL'!N3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N3</f>
         <v>0</v>
       </c>
       <c r="DB62">
-        <f>'d7-to-PFL'!O3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O3</f>
         <v>0</v>
       </c>
       <c r="DC62">
-        <f>'d7-to-PFL'!P3 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P3</f>
         <v>0</v>
       </c>
     </row>
@@ -22221,51 +22268,67 @@
         <v>0</v>
       </c>
       <c r="L63" s="1">
+        <f>'d7-to-PEG-PEN'!A4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M63" s="1">
+        <f>'d7-to-PEG-PEN'!B4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N63" s="1">
+        <f>'d7-to-PEG-PEN'!C4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O63" s="1">
+        <f>'d7-to-PEG-PEN'!D4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P63" s="1">
+        <f>'d7-to-PEG-PEN'!E4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q63" s="1">
+        <f>'d7-to-PEG-PEN'!F4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R63" s="1">
+        <f>'d7-to-PEG-PEN'!G4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!H4 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="T63" s="1">
+        <f>'d7-to-PEG-PEN'!I4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U63" s="1">
+        <f>'d7-to-PEG-PEN'!J4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V63" s="1">
+        <f>'d7-to-PEG-PEN'!K4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W63" s="1">
+        <f>'d7-to-PEG-PEN'!L4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X63" s="1">
+        <f>'d7-to-PEG-PEN'!M4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
+        <f>'d7-to-PEG-PEN'!N4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z63" s="1">
+        <f>'d7-to-PEG-PEN'!O4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA63" s="1">
+        <f>'d7-to-PEG-PEN'!P4 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB63">
@@ -22398,15 +22461,15 @@
       </c>
       <c r="BH63">
         <f>'d7-to-d7'!A4 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BI63">
         <f>'d7-to-d7'!B4 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BJ63">
         <f>'d7-to-d7'!C4 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <f>'d7-to-d7'!D4 * Gains!$H$8</f>
@@ -22414,19 +22477,19 @@
       </c>
       <c r="BL63">
         <f>'d7-to-d7'!E4 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BM63">
         <f>'d7-to-d7'!F4 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BN63">
         <f>'d7-to-d7'!G4 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BO63">
         <f>'d7-to-d7'!H4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BP63">
         <f>'d7-to-d7'!I4 * Gains!$H$8</f>
@@ -22525,67 +22588,67 @@
         <v>0</v>
       </c>
       <c r="CN63">
-        <f>'d7-to-PFL'!A4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A4</f>
         <v>0</v>
       </c>
       <c r="CO63">
-        <f>'d7-to-PFL'!B4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B4</f>
         <v>0</v>
       </c>
       <c r="CP63">
-        <f>'d7-to-PFL'!C4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C4</f>
         <v>0</v>
       </c>
       <c r="CQ63">
-        <f>'d7-to-PFL'!D4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D4</f>
         <v>0</v>
       </c>
       <c r="CR63">
-        <f>'d7-to-PFL'!E4 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!E4</f>
+        <v>0</v>
       </c>
       <c r="CS63">
-        <f>'d7-to-PFL'!F4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F4</f>
         <v>0</v>
       </c>
       <c r="CT63">
-        <f>'d7-to-PFL'!G4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G4</f>
         <v>0</v>
       </c>
       <c r="CU63">
-        <f>'d7-to-PFL'!H4 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!H4</f>
+        <v>-1</v>
       </c>
       <c r="CV63">
-        <f>'d7-to-PFL'!I4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I4</f>
         <v>0</v>
       </c>
       <c r="CW63">
-        <f>'d7-to-PFL'!J4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J4</f>
         <v>0</v>
       </c>
       <c r="CX63">
-        <f>'d7-to-PFL'!K4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K4</f>
         <v>0</v>
       </c>
       <c r="CY63">
-        <f>'d7-to-PFL'!L4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L4</f>
         <v>0</v>
       </c>
       <c r="CZ63">
-        <f>'d7-to-PFL'!M4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M4</f>
         <v>0</v>
       </c>
       <c r="DA63">
-        <f>'d7-to-PFL'!N4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N4</f>
         <v>0</v>
       </c>
       <c r="DB63">
-        <f>'d7-to-PFL'!O4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O4</f>
         <v>0</v>
       </c>
       <c r="DC63">
-        <f>'d7-to-PFL'!P4 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P4</f>
         <v>0</v>
       </c>
     </row>
@@ -22624,51 +22687,67 @@
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!A5 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="M64" s="1">
+        <f>'d7-to-PEG-PEN'!B5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N64" s="1">
+        <f>'d7-to-PEG-PEN'!C5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O64" s="1">
+        <f>'d7-to-PEG-PEN'!D5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P64" s="1">
+        <f>'d7-to-PEG-PEN'!E5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q64" s="1">
+        <f>'d7-to-PEG-PEN'!F5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R64" s="1">
+        <f>'d7-to-PEG-PEN'!G5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S64" s="1">
+        <f>'d7-to-PEG-PEN'!H5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T64" s="1">
+        <f>'d7-to-PEG-PEN'!I5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U64" s="1">
+        <f>'d7-to-PEG-PEN'!J5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V64" s="1">
+        <f>'d7-to-PEG-PEN'!K5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W64" s="1">
+        <f>'d7-to-PEG-PEN'!L5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X64" s="1">
+        <f>'d7-to-PEG-PEN'!M5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
+        <f>'d7-to-PEG-PEN'!N5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z64" s="1">
+        <f>'d7-to-PEG-PEN'!O5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA64" s="1">
+        <f>'d7-to-PEG-PEN'!P5 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB64">
@@ -22801,19 +22880,19 @@
       </c>
       <c r="BH64">
         <f>'d7-to-d7'!A5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BI64">
         <f>'d7-to-d7'!B5 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BJ64">
         <f>'d7-to-d7'!C5 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BK64">
         <f>'d7-to-d7'!D5 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <f>'d7-to-d7'!E5 * Gains!$H$8</f>
@@ -22821,15 +22900,15 @@
       </c>
       <c r="BM64">
         <f>'d7-to-d7'!F5 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BN64">
         <f>'d7-to-d7'!G5 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BO64">
         <f>'d7-to-d7'!H5 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BP64">
         <f>'d7-to-d7'!I5 * Gains!$H$8</f>
@@ -22928,67 +23007,67 @@
         <v>0</v>
       </c>
       <c r="CN64">
-        <f>'d7-to-PFL'!A5 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!A5</f>
+        <v>-1</v>
       </c>
       <c r="CO64">
-        <f>'d7-to-PFL'!B5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B5</f>
         <v>0</v>
       </c>
       <c r="CP64">
-        <f>'d7-to-PFL'!C5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C5</f>
         <v>0</v>
       </c>
       <c r="CQ64">
-        <f>'d7-to-PFL'!D5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D5</f>
         <v>0</v>
       </c>
       <c r="CR64">
-        <f>'d7-to-PFL'!E5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E5</f>
         <v>0</v>
       </c>
       <c r="CS64">
-        <f>'d7-to-PFL'!F5 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!F5</f>
+        <v>0</v>
       </c>
       <c r="CT64">
-        <f>'d7-to-PFL'!G5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G5</f>
         <v>0</v>
       </c>
       <c r="CU64">
-        <f>'d7-to-PFL'!H5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H5</f>
         <v>0</v>
       </c>
       <c r="CV64">
-        <f>'d7-to-PFL'!I5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I5</f>
         <v>0</v>
       </c>
       <c r="CW64">
-        <f>'d7-to-PFL'!J5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J5</f>
         <v>0</v>
       </c>
       <c r="CX64">
-        <f>'d7-to-PFL'!K5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K5</f>
         <v>0</v>
       </c>
       <c r="CY64">
-        <f>'d7-to-PFL'!L5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L5</f>
         <v>0</v>
       </c>
       <c r="CZ64">
-        <f>'d7-to-PFL'!M5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M5</f>
         <v>0</v>
       </c>
       <c r="DA64">
-        <f>'d7-to-PFL'!N5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N5</f>
         <v>0</v>
       </c>
       <c r="DB64">
-        <f>'d7-to-PFL'!O5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O5</f>
         <v>0</v>
       </c>
       <c r="DC64">
-        <f>'d7-to-PFL'!P5 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P5</f>
         <v>0</v>
       </c>
     </row>
@@ -23027,51 +23106,67 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
+        <f>'d7-to-PEG-PEN'!A6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!B6 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="N65" s="1">
+        <f>'d7-to-PEG-PEN'!C6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O65" s="1">
+        <f>'d7-to-PEG-PEN'!D6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P65" s="1">
+        <f>'d7-to-PEG-PEN'!E6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
+        <f>'d7-to-PEG-PEN'!F6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R65" s="1">
+        <f>'d7-to-PEG-PEN'!G6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S65" s="1">
+        <f>'d7-to-PEG-PEN'!H6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T65" s="1">
+        <f>'d7-to-PEG-PEN'!I6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U65" s="1">
+        <f>'d7-to-PEG-PEN'!J6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V65" s="1">
+        <f>'d7-to-PEG-PEN'!K6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W65" s="1">
+        <f>'d7-to-PEG-PEN'!L6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X65" s="1">
+        <f>'d7-to-PEG-PEN'!M6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
+        <f>'d7-to-PEG-PEN'!N6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z65" s="1">
+        <f>'d7-to-PEG-PEN'!O6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA65" s="1">
+        <f>'d7-to-PEG-PEN'!P6 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB65">
@@ -23204,23 +23299,23 @@
       </c>
       <c r="BH65">
         <f>'d7-to-d7'!A6 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BI65">
         <f>'d7-to-d7'!B6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BJ65">
         <f>'d7-to-d7'!C6 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BK65">
         <f>'d7-to-d7'!D6 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BL65">
         <f>'d7-to-d7'!E6 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BM65">
         <f>'d7-to-d7'!F6 * Gains!$H$8</f>
@@ -23228,11 +23323,11 @@
       </c>
       <c r="BN65">
         <f>'d7-to-d7'!G6 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BO65">
         <f>'d7-to-d7'!H6 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BP65">
         <f>'d7-to-d7'!I6 * Gains!$H$8</f>
@@ -23331,67 +23426,67 @@
         <v>0</v>
       </c>
       <c r="CN65">
-        <f>'d7-to-PFL'!A6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A6</f>
         <v>0</v>
       </c>
       <c r="CO65">
-        <f>'d7-to-PFL'!B6 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!B6</f>
+        <v>-1</v>
       </c>
       <c r="CP65">
-        <f>'d7-to-PFL'!C6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C6</f>
         <v>0</v>
       </c>
       <c r="CQ65">
-        <f>'d7-to-PFL'!D6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D6</f>
         <v>0</v>
       </c>
       <c r="CR65">
-        <f>'d7-to-PFL'!E6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E6</f>
         <v>0</v>
       </c>
       <c r="CS65">
-        <f>'d7-to-PFL'!F6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F6</f>
         <v>0</v>
       </c>
       <c r="CT65">
-        <f>'d7-to-PFL'!G6 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!G6</f>
+        <v>0</v>
       </c>
       <c r="CU65">
-        <f>'d7-to-PFL'!H6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H6</f>
         <v>0</v>
       </c>
       <c r="CV65">
-        <f>'d7-to-PFL'!I6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I6</f>
         <v>0</v>
       </c>
       <c r="CW65">
-        <f>'d7-to-PFL'!J6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J6</f>
         <v>0</v>
       </c>
       <c r="CX65">
-        <f>'d7-to-PFL'!K6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K6</f>
         <v>0</v>
       </c>
       <c r="CY65">
-        <f>'d7-to-PFL'!L6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L6</f>
         <v>0</v>
       </c>
       <c r="CZ65">
-        <f>'d7-to-PFL'!M6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M6</f>
         <v>0</v>
       </c>
       <c r="DA65">
-        <f>'d7-to-PFL'!N6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N6</f>
         <v>0</v>
       </c>
       <c r="DB65">
-        <f>'d7-to-PFL'!O6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O6</f>
         <v>0</v>
       </c>
       <c r="DC65">
-        <f>'d7-to-PFL'!P6 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P6</f>
         <v>0</v>
       </c>
     </row>
@@ -23430,51 +23525,67 @@
         <v>0</v>
       </c>
       <c r="L66" s="1">
+        <f>'d7-to-PEG-PEN'!A7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M66" s="1">
+        <f>'d7-to-PEG-PEN'!B7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!C7 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="O66" s="1">
+        <f>'d7-to-PEG-PEN'!D7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P66" s="1">
+        <f>'d7-to-PEG-PEN'!E7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q66" s="1">
+        <f>'d7-to-PEG-PEN'!F7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R66" s="1">
+        <f>'d7-to-PEG-PEN'!G7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S66" s="1">
+        <f>'d7-to-PEG-PEN'!H7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T66" s="1">
+        <f>'d7-to-PEG-PEN'!I7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U66" s="1">
+        <f>'d7-to-PEG-PEN'!J7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V66" s="1">
+        <f>'d7-to-PEG-PEN'!K7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W66" s="1">
+        <f>'d7-to-PEG-PEN'!L7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X66" s="1">
+        <f>'d7-to-PEG-PEN'!M7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
+        <f>'d7-to-PEG-PEN'!N7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z66" s="1">
+        <f>'d7-to-PEG-PEN'!O7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA66" s="1">
+        <f>'d7-to-PEG-PEN'!P7 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB66">
@@ -23607,27 +23718,27 @@
       </c>
       <c r="BH66">
         <f>'d7-to-d7'!A7 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BI66">
         <f>'d7-to-d7'!B7 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BJ66">
         <f>'d7-to-d7'!C7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BK66">
         <f>'d7-to-d7'!D7 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BL66">
         <f>'d7-to-d7'!E7 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BM66">
         <f>'d7-to-d7'!F7 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <f>'d7-to-d7'!G7 * Gains!$H$8</f>
@@ -23635,7 +23746,7 @@
       </c>
       <c r="BO66">
         <f>'d7-to-d7'!H7 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BP66">
         <f>'d7-to-d7'!I7 * Gains!$H$8</f>
@@ -23734,67 +23845,67 @@
         <v>0</v>
       </c>
       <c r="CN66">
-        <f>'d7-to-PFL'!A7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A7</f>
         <v>0</v>
       </c>
       <c r="CO66">
-        <f>'d7-to-PFL'!B7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B7</f>
         <v>0</v>
       </c>
       <c r="CP66">
-        <f>'d7-to-PFL'!C7 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!C7</f>
+        <v>-1</v>
       </c>
       <c r="CQ66">
-        <f>'d7-to-PFL'!D7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D7</f>
         <v>0</v>
       </c>
       <c r="CR66">
-        <f>'d7-to-PFL'!E7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E7</f>
         <v>0</v>
       </c>
       <c r="CS66">
-        <f>'d7-to-PFL'!F7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F7</f>
         <v>0</v>
       </c>
       <c r="CT66">
-        <f>'d7-to-PFL'!G7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G7</f>
         <v>0</v>
       </c>
       <c r="CU66">
-        <f>'d7-to-PFL'!H7 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!H7</f>
+        <v>0</v>
       </c>
       <c r="CV66">
-        <f>'d7-to-PFL'!I7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I7</f>
         <v>0</v>
       </c>
       <c r="CW66">
-        <f>'d7-to-PFL'!J7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J7</f>
         <v>0</v>
       </c>
       <c r="CX66">
-        <f>'d7-to-PFL'!K7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K7</f>
         <v>0</v>
       </c>
       <c r="CY66">
-        <f>'d7-to-PFL'!L7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L7</f>
         <v>0</v>
       </c>
       <c r="CZ66">
-        <f>'d7-to-PFL'!M7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M7</f>
         <v>0</v>
       </c>
       <c r="DA66">
-        <f>'d7-to-PFL'!N7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N7</f>
         <v>0</v>
       </c>
       <c r="DB66">
-        <f>'d7-to-PFL'!O7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O7</f>
         <v>0</v>
       </c>
       <c r="DC66">
-        <f>'d7-to-PFL'!P7 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P7</f>
         <v>0</v>
       </c>
     </row>
@@ -23833,51 +23944,67 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
+        <f>'d7-to-PEG-PEN'!A8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M67" s="1">
+        <f>'d7-to-PEG-PEN'!B8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N67" s="1">
+        <f>'d7-to-PEG-PEN'!C8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!D8 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="P67" s="1">
+        <f>'d7-to-PEG-PEN'!E8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q67" s="1">
+        <f>'d7-to-PEG-PEN'!F8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R67" s="1">
+        <f>'d7-to-PEG-PEN'!G8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S67" s="1">
+        <f>'d7-to-PEG-PEN'!H8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T67" s="1">
+        <f>'d7-to-PEG-PEN'!I8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U67" s="1">
+        <f>'d7-to-PEG-PEN'!J8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V67" s="1">
+        <f>'d7-to-PEG-PEN'!K8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W67" s="1">
+        <f>'d7-to-PEG-PEN'!L8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X67" s="1">
+        <f>'d7-to-PEG-PEN'!M8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
+        <f>'d7-to-PEG-PEN'!N8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z67" s="1">
+        <f>'d7-to-PEG-PEN'!O8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA67" s="1">
+        <f>'d7-to-PEG-PEN'!P8 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB67">
@@ -24010,31 +24137,31 @@
       </c>
       <c r="BH67">
         <f>'d7-to-d7'!A8 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BI67">
         <f>'d7-to-d7'!B8 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BJ67">
         <f>'d7-to-d7'!C8 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BK67">
         <f>'d7-to-d7'!D8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BL67">
         <f>'d7-to-d7'!E8 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BM67">
         <f>'d7-to-d7'!F8 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BN67">
         <f>'d7-to-d7'!G8 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BO67">
         <f>'d7-to-d7'!H8 * Gains!$H$8</f>
@@ -24137,67 +24264,67 @@
         <v>0</v>
       </c>
       <c r="CN67">
-        <f>'d7-to-PFL'!A8 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!A8</f>
+        <v>0</v>
       </c>
       <c r="CO67">
-        <f>'d7-to-PFL'!B8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B8</f>
         <v>0</v>
       </c>
       <c r="CP67">
-        <f>'d7-to-PFL'!C8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C8</f>
         <v>0</v>
       </c>
       <c r="CQ67">
-        <f>'d7-to-PFL'!D8 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!D8</f>
+        <v>-1</v>
       </c>
       <c r="CR67">
-        <f>'d7-to-PFL'!E8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E8</f>
         <v>0</v>
       </c>
       <c r="CS67">
-        <f>'d7-to-PFL'!F8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F8</f>
         <v>0</v>
       </c>
       <c r="CT67">
-        <f>'d7-to-PFL'!G8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G8</f>
         <v>0</v>
       </c>
       <c r="CU67">
-        <f>'d7-to-PFL'!H8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H8</f>
         <v>0</v>
       </c>
       <c r="CV67">
-        <f>'d7-to-PFL'!I8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I8</f>
         <v>0</v>
       </c>
       <c r="CW67">
-        <f>'d7-to-PFL'!J8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J8</f>
         <v>0</v>
       </c>
       <c r="CX67">
-        <f>'d7-to-PFL'!K8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K8</f>
         <v>0</v>
       </c>
       <c r="CY67">
-        <f>'d7-to-PFL'!L8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L8</f>
         <v>0</v>
       </c>
       <c r="CZ67">
-        <f>'d7-to-PFL'!M8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M8</f>
         <v>0</v>
       </c>
       <c r="DA67">
-        <f>'d7-to-PFL'!N8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N8</f>
         <v>0</v>
       </c>
       <c r="DB67">
-        <f>'d7-to-PFL'!O8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O8</f>
         <v>0</v>
       </c>
       <c r="DC67">
-        <f>'d7-to-PFL'!P8 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P8</f>
         <v>0</v>
       </c>
     </row>
@@ -24236,51 +24363,67 @@
         <v>0</v>
       </c>
       <c r="L68" s="1">
+        <f>'d7-to-PEG-PEN'!A9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M68" s="1">
+        <f>'d7-to-PEG-PEN'!B9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N68" s="1">
+        <f>'d7-to-PEG-PEN'!C9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O68" s="1">
+        <f>'d7-to-PEG-PEN'!D9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P68" s="1">
+        <f>'d7-to-PEG-PEN'!E9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q68" s="1">
+        <f>'d7-to-PEG-PEN'!F9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R68" s="1">
+        <f>'d7-to-PEG-PEN'!G9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S68" s="1">
+        <f>'d7-to-PEG-PEN'!H9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T68" s="1">
+        <f>'d7-to-PEG-PEN'!I9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U68" s="1">
+        <f>'d7-to-PEG-PEN'!J9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V68" s="1">
+        <f>'d7-to-PEG-PEN'!K9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W68" s="1">
+        <f>'d7-to-PEG-PEN'!L9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!M9 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="Y68" s="1">
+        <f>'d7-to-PEG-PEN'!N9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z68" s="1">
+        <f>'d7-to-PEG-PEN'!O9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA68" s="1">
+        <f>'d7-to-PEG-PEN'!P9 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB68">
@@ -24449,31 +24592,31 @@
       </c>
       <c r="BQ68">
         <f>'d7-to-d7'!J9 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BR68">
         <f>'d7-to-d7'!K9 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BS68">
         <f>'d7-to-d7'!L9 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BT68">
         <f>'d7-to-d7'!M9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BU68">
         <f>'d7-to-d7'!N9 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BV68">
         <f>'d7-to-d7'!O9 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BW68">
         <f>'d7-to-d7'!P9 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BX68">
         <f>'d7-to-PEG-PEN'!A9 * Gains!$I$8</f>
@@ -24540,68 +24683,68 @@
         <v>0</v>
       </c>
       <c r="CN68">
-        <f>'d7-to-PFL'!A9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A9</f>
         <v>0</v>
       </c>
       <c r="CO68">
-        <f>'d7-to-PFL'!B9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B9</f>
         <v>0</v>
       </c>
       <c r="CP68">
-        <f>'d7-to-PFL'!C9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C9</f>
         <v>0</v>
       </c>
       <c r="CQ68">
-        <f>'d7-to-PFL'!D9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D9</f>
         <v>0</v>
       </c>
       <c r="CR68">
-        <f>'d7-to-PFL'!E9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E9</f>
         <v>0</v>
       </c>
       <c r="CS68">
-        <f>'d7-to-PFL'!F9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F9</f>
         <v>0</v>
       </c>
       <c r="CT68">
-        <f>'d7-to-PFL'!G9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G9</f>
         <v>0</v>
       </c>
       <c r="CU68">
-        <f>'d7-to-PFL'!H9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H9</f>
         <v>0</v>
       </c>
       <c r="CV68">
-        <f>'d7-to-PFL'!I9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I9</f>
         <v>0</v>
       </c>
       <c r="CW68">
-        <f>'d7-to-PFL'!J9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J9</f>
         <v>0</v>
       </c>
       <c r="CX68">
-        <f>'d7-to-PFL'!K9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K9</f>
         <v>0</v>
       </c>
       <c r="CY68">
-        <f>'d7-to-PFL'!L9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L9</f>
         <v>0</v>
       </c>
       <c r="CZ68">
-        <f>'d7-to-PFL'!M9 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!M9</f>
+        <v>-1</v>
       </c>
       <c r="DA68">
-        <f>'d7-to-PFL'!N9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N9</f>
         <v>0</v>
       </c>
       <c r="DB68">
-        <f>'d7-to-PFL'!O9 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O9</f>
         <v>0</v>
       </c>
       <c r="DC68">
-        <f>'d7-to-PFL'!P9 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!P9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:107" x14ac:dyDescent="0.25">
@@ -24639,51 +24782,67 @@
         <v>0</v>
       </c>
       <c r="L69" s="1">
+        <f>'d7-to-PEG-PEN'!A10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M69" s="1">
+        <f>'d7-to-PEG-PEN'!B10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N69" s="1">
+        <f>'d7-to-PEG-PEN'!C10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O69" s="1">
+        <f>'d7-to-PEG-PEN'!D10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P69" s="1">
+        <f>'d7-to-PEG-PEN'!E10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q69" s="1">
+        <f>'d7-to-PEG-PEN'!F10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R69" s="1">
+        <f>'d7-to-PEG-PEN'!G10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S69" s="1">
+        <f>'d7-to-PEG-PEN'!H10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T69" s="1">
+        <f>'d7-to-PEG-PEN'!I10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U69" s="1">
+        <f>'d7-to-PEG-PEN'!J10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V69" s="1">
+        <f>'d7-to-PEG-PEN'!K10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W69" s="1">
+        <f>'d7-to-PEG-PEN'!L10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X69" s="1">
+        <f>'d7-to-PEG-PEN'!M10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!N10 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="Z69" s="1">
+        <f>'d7-to-PEG-PEN'!O10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA69" s="1">
+        <f>'d7-to-PEG-PEN'!P10 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB69">
@@ -24848,7 +25007,7 @@
       </c>
       <c r="BP69">
         <f>'d7-to-d7'!I10 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BQ69">
         <f>'d7-to-d7'!J10 * Gains!$H$8</f>
@@ -24856,27 +25015,27 @@
       </c>
       <c r="BR69">
         <f>'d7-to-d7'!K10 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BS69">
         <f>'d7-to-d7'!L10 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BT69">
         <f>'d7-to-d7'!M10 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BU69">
         <f>'d7-to-d7'!N10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BV69">
         <f>'d7-to-d7'!O10 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BW69">
         <f>'d7-to-d7'!P10 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BX69">
         <f>'d7-to-PEG-PEN'!A10 * Gains!$I$8</f>
@@ -24943,67 +25102,67 @@
         <v>0</v>
       </c>
       <c r="CN69">
-        <f>'d7-to-PFL'!A10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A10</f>
         <v>0</v>
       </c>
       <c r="CO69">
-        <f>'d7-to-PFL'!B10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B10</f>
         <v>0</v>
       </c>
       <c r="CP69">
-        <f>'d7-to-PFL'!C10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C10</f>
         <v>0</v>
       </c>
       <c r="CQ69">
-        <f>'d7-to-PFL'!D10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D10</f>
         <v>0</v>
       </c>
       <c r="CR69">
-        <f>'d7-to-PFL'!E10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E10</f>
         <v>0</v>
       </c>
       <c r="CS69">
-        <f>'d7-to-PFL'!F10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F10</f>
         <v>0</v>
       </c>
       <c r="CT69">
-        <f>'d7-to-PFL'!G10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G10</f>
         <v>0</v>
       </c>
       <c r="CU69">
-        <f>'d7-to-PFL'!H10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H10</f>
         <v>0</v>
       </c>
       <c r="CV69">
-        <f>'d7-to-PFL'!I10 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!I10</f>
+        <v>0</v>
       </c>
       <c r="CW69">
-        <f>'d7-to-PFL'!J10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J10</f>
         <v>0</v>
       </c>
       <c r="CX69">
-        <f>'d7-to-PFL'!K10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K10</f>
         <v>0</v>
       </c>
       <c r="CY69">
-        <f>'d7-to-PFL'!L10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L10</f>
         <v>0</v>
       </c>
       <c r="CZ69">
-        <f>'d7-to-PFL'!M10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M10</f>
         <v>0</v>
       </c>
       <c r="DA69">
-        <f>'d7-to-PFL'!N10 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!N10</f>
+        <v>-1</v>
       </c>
       <c r="DB69">
-        <f>'d7-to-PFL'!O10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O10</f>
         <v>0</v>
       </c>
       <c r="DC69">
-        <f>'d7-to-PFL'!P10 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P10</f>
         <v>0</v>
       </c>
     </row>
@@ -25042,51 +25201,67 @@
         <v>0</v>
       </c>
       <c r="L70" s="1">
+        <f>'d7-to-PEG-PEN'!A11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M70" s="1">
+        <f>'d7-to-PEG-PEN'!B11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N70" s="1">
+        <f>'d7-to-PEG-PEN'!C11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O70" s="1">
+        <f>'d7-to-PEG-PEN'!D11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P70" s="1">
+        <f>'d7-to-PEG-PEN'!E11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q70" s="1">
+        <f>'d7-to-PEG-PEN'!F11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R70" s="1">
+        <f>'d7-to-PEG-PEN'!G11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S70" s="1">
+        <f>'d7-to-PEG-PEN'!H11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T70" s="1">
+        <f>'d7-to-PEG-PEN'!I11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U70" s="1">
+        <f>'d7-to-PEG-PEN'!J11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V70" s="1">
+        <f>'d7-to-PEG-PEN'!K11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W70" s="1">
+        <f>'d7-to-PEG-PEN'!L11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X70" s="1">
+        <f>'d7-to-PEG-PEN'!M11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
+        <f>'d7-to-PEG-PEN'!N11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!O11 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="AA70" s="1">
+        <f>'d7-to-PEG-PEN'!P11 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB70">
@@ -25251,11 +25426,11 @@
       </c>
       <c r="BP70">
         <f>'d7-to-d7'!I11 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BQ70">
         <f>'d7-to-d7'!J11 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <f>'d7-to-d7'!K11 * Gains!$H$8</f>
@@ -25263,23 +25438,23 @@
       </c>
       <c r="BS70">
         <f>'d7-to-d7'!L11 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BT70">
         <f>'d7-to-d7'!M11 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BU70">
         <f>'d7-to-d7'!N11 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BV70">
         <f>'d7-to-d7'!O11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BW70">
         <f>'d7-to-d7'!P11 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BX70">
         <f>'d7-to-PEG-PEN'!A11 * Gains!$I$8</f>
@@ -25346,67 +25521,67 @@
         <v>0</v>
       </c>
       <c r="CN70">
-        <f>'d7-to-PFL'!A11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A11</f>
         <v>0</v>
       </c>
       <c r="CO70">
-        <f>'d7-to-PFL'!B11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B11</f>
         <v>0</v>
       </c>
       <c r="CP70">
-        <f>'d7-to-PFL'!C11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C11</f>
         <v>0</v>
       </c>
       <c r="CQ70">
-        <f>'d7-to-PFL'!D11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D11</f>
         <v>0</v>
       </c>
       <c r="CR70">
-        <f>'d7-to-PFL'!E11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E11</f>
         <v>0</v>
       </c>
       <c r="CS70">
-        <f>'d7-to-PFL'!F11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F11</f>
         <v>0</v>
       </c>
       <c r="CT70">
-        <f>'d7-to-PFL'!G11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G11</f>
         <v>0</v>
       </c>
       <c r="CU70">
-        <f>'d7-to-PFL'!H11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H11</f>
         <v>0</v>
       </c>
       <c r="CV70">
-        <f>'d7-to-PFL'!I11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I11</f>
         <v>0</v>
       </c>
       <c r="CW70">
-        <f>'d7-to-PFL'!J11 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!J11</f>
+        <v>0</v>
       </c>
       <c r="CX70">
-        <f>'d7-to-PFL'!K11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K11</f>
         <v>0</v>
       </c>
       <c r="CY70">
-        <f>'d7-to-PFL'!L11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L11</f>
         <v>0</v>
       </c>
       <c r="CZ70">
-        <f>'d7-to-PFL'!M11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M11</f>
         <v>0</v>
       </c>
       <c r="DA70">
-        <f>'d7-to-PFL'!N11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N11</f>
         <v>0</v>
       </c>
       <c r="DB70">
-        <f>'d7-to-PFL'!O11 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!O11</f>
+        <v>-1</v>
       </c>
       <c r="DC70">
-        <f>'d7-to-PFL'!P11 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P11</f>
         <v>0</v>
       </c>
     </row>
@@ -25445,52 +25620,68 @@
         <v>0</v>
       </c>
       <c r="L71" s="1">
+        <f>'d7-to-PEG-PEN'!A12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M71" s="1">
+        <f>'d7-to-PEG-PEN'!B12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N71" s="1">
+        <f>'d7-to-PEG-PEN'!C12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O71" s="1">
+        <f>'d7-to-PEG-PEN'!D12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P71" s="1">
+        <f>'d7-to-PEG-PEN'!E12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q71" s="1">
+        <f>'d7-to-PEG-PEN'!F12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R71" s="1">
+        <f>'d7-to-PEG-PEN'!G12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S71" s="1">
+        <f>'d7-to-PEG-PEN'!H12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T71" s="1">
+        <f>'d7-to-PEG-PEN'!I12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U71" s="1">
+        <f>'d7-to-PEG-PEN'!J12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V71" s="1">
+        <f>'d7-to-PEG-PEN'!K12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W71" s="1">
+        <f>'d7-to-PEG-PEN'!L12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X71" s="1">
+        <f>'d7-to-PEG-PEN'!M12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
+        <f>'d7-to-PEG-PEN'!N12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z71" s="1">
+        <f>'d7-to-PEG-PEN'!O12 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA71" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!P12 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="AB71">
         <f>'d7-to-PEG-PEN'!A12 * Gains!$F$8</f>
@@ -25654,15 +25845,15 @@
       </c>
       <c r="BP71">
         <f>'d7-to-d7'!I12 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BQ71">
         <f>'d7-to-d7'!J12 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BR71">
         <f>'d7-to-d7'!K12 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <f>'d7-to-d7'!L12 * Gains!$H$8</f>
@@ -25670,19 +25861,19 @@
       </c>
       <c r="BT71">
         <f>'d7-to-d7'!M12 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BU71">
         <f>'d7-to-d7'!N12 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BV71">
         <f>'d7-to-d7'!O12 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BW71">
         <f>'d7-to-d7'!P12 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BX71">
         <f>'d7-to-PEG-PEN'!A12 * Gains!$I$8</f>
@@ -25749,68 +25940,68 @@
         <v>0</v>
       </c>
       <c r="CN71">
-        <f>'d7-to-PFL'!A12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A12</f>
         <v>0</v>
       </c>
       <c r="CO71">
-        <f>'d7-to-PFL'!B12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B12</f>
         <v>0</v>
       </c>
       <c r="CP71">
-        <f>'d7-to-PFL'!C12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C12</f>
         <v>0</v>
       </c>
       <c r="CQ71">
-        <f>'d7-to-PFL'!D12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D12</f>
         <v>0</v>
       </c>
       <c r="CR71">
-        <f>'d7-to-PFL'!E12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E12</f>
         <v>0</v>
       </c>
       <c r="CS71">
-        <f>'d7-to-PFL'!F12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F12</f>
         <v>0</v>
       </c>
       <c r="CT71">
-        <f>'d7-to-PFL'!G12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G12</f>
         <v>0</v>
       </c>
       <c r="CU71">
-        <f>'d7-to-PFL'!H12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H12</f>
         <v>0</v>
       </c>
       <c r="CV71">
-        <f>'d7-to-PFL'!I12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I12</f>
         <v>0</v>
       </c>
       <c r="CW71">
-        <f>'d7-to-PFL'!J12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J12</f>
         <v>0</v>
       </c>
       <c r="CX71">
-        <f>'d7-to-PFL'!K12 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!K12</f>
+        <v>0</v>
       </c>
       <c r="CY71">
-        <f>'d7-to-PFL'!L12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L12</f>
         <v>0</v>
       </c>
       <c r="CZ71">
-        <f>'d7-to-PFL'!M12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M12</f>
         <v>0</v>
       </c>
       <c r="DA71">
-        <f>'d7-to-PFL'!N12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N12</f>
         <v>0</v>
       </c>
       <c r="DB71">
-        <f>'d7-to-PFL'!O12 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O12</f>
         <v>0</v>
       </c>
       <c r="DC71">
-        <f>'d7-to-PFL'!P12 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!P12</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:107" x14ac:dyDescent="0.25">
@@ -25848,51 +26039,67 @@
         <v>0</v>
       </c>
       <c r="L72" s="1">
+        <f>'d7-to-PEG-PEN'!A13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M72" s="1">
+        <f>'d7-to-PEG-PEN'!B13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N72" s="1">
+        <f>'d7-to-PEG-PEN'!C13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O72" s="1">
+        <f>'d7-to-PEG-PEN'!D13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P72" s="1">
+        <f>'d7-to-PEG-PEN'!E13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q72" s="1">
+        <f>'d7-to-PEG-PEN'!F13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R72" s="1">
+        <f>'d7-to-PEG-PEN'!G13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S72" s="1">
+        <f>'d7-to-PEG-PEN'!H13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T72" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!I13 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="U72" s="1">
+        <f>'d7-to-PEG-PEN'!J13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V72" s="1">
+        <f>'d7-to-PEG-PEN'!K13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W72" s="1">
+        <f>'d7-to-PEG-PEN'!L13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X72" s="1">
+        <f>'d7-to-PEG-PEN'!M13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
+        <f>'d7-to-PEG-PEN'!N13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z72" s="1">
+        <f>'d7-to-PEG-PEN'!O13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA72" s="1">
+        <f>'d7-to-PEG-PEN'!P13 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB72">
@@ -26057,19 +26264,19 @@
       </c>
       <c r="BP72">
         <f>'d7-to-d7'!I13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BQ72">
         <f>'d7-to-d7'!J13 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BR72">
         <f>'d7-to-d7'!K13 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BS72">
         <f>'d7-to-d7'!L13 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <f>'d7-to-d7'!M13 * Gains!$H$8</f>
@@ -26077,15 +26284,15 @@
       </c>
       <c r="BU72">
         <f>'d7-to-d7'!N13 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BV72">
         <f>'d7-to-d7'!O13 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BW72">
         <f>'d7-to-d7'!P13 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BX72">
         <f>'d7-to-PEG-PEN'!A13 * Gains!$I$8</f>
@@ -26152,67 +26359,67 @@
         <v>0</v>
       </c>
       <c r="CN72">
-        <f>'d7-to-PFL'!A13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A13</f>
         <v>0</v>
       </c>
       <c r="CO72">
-        <f>'d7-to-PFL'!B13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B13</f>
         <v>0</v>
       </c>
       <c r="CP72">
-        <f>'d7-to-PFL'!C13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C13</f>
         <v>0</v>
       </c>
       <c r="CQ72">
-        <f>'d7-to-PFL'!D13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D13</f>
         <v>0</v>
       </c>
       <c r="CR72">
-        <f>'d7-to-PFL'!E13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E13</f>
         <v>0</v>
       </c>
       <c r="CS72">
-        <f>'d7-to-PFL'!F13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F13</f>
         <v>0</v>
       </c>
       <c r="CT72">
-        <f>'d7-to-PFL'!G13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G13</f>
         <v>0</v>
       </c>
       <c r="CU72">
-        <f>'d7-to-PFL'!H13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H13</f>
         <v>0</v>
       </c>
       <c r="CV72">
-        <f>'d7-to-PFL'!I13 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!I13</f>
+        <v>-1</v>
       </c>
       <c r="CW72">
-        <f>'d7-to-PFL'!J13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J13</f>
         <v>0</v>
       </c>
       <c r="CX72">
-        <f>'d7-to-PFL'!K13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K13</f>
         <v>0</v>
       </c>
       <c r="CY72">
-        <f>'d7-to-PFL'!L13 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!L13</f>
+        <v>0</v>
       </c>
       <c r="CZ72">
-        <f>'d7-to-PFL'!M13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M13</f>
         <v>0</v>
       </c>
       <c r="DA72">
-        <f>'d7-to-PFL'!N13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N13</f>
         <v>0</v>
       </c>
       <c r="DB72">
-        <f>'d7-to-PFL'!O13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O13</f>
         <v>0</v>
       </c>
       <c r="DC72">
-        <f>'d7-to-PFL'!P13 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P13</f>
         <v>0</v>
       </c>
     </row>
@@ -26251,51 +26458,67 @@
         <v>0</v>
       </c>
       <c r="L73" s="1">
+        <f>'d7-to-PEG-PEN'!A14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M73" s="1">
+        <f>'d7-to-PEG-PEN'!B14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N73" s="1">
+        <f>'d7-to-PEG-PEN'!C14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O73" s="1">
+        <f>'d7-to-PEG-PEN'!D14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P73" s="1">
+        <f>'d7-to-PEG-PEN'!E14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q73" s="1">
+        <f>'d7-to-PEG-PEN'!F14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R73" s="1">
+        <f>'d7-to-PEG-PEN'!G14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S73" s="1">
+        <f>'d7-to-PEG-PEN'!H14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T73" s="1">
+        <f>'d7-to-PEG-PEN'!I14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U73" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!J14 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="V73" s="1">
+        <f>'d7-to-PEG-PEN'!K14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W73" s="1">
+        <f>'d7-to-PEG-PEN'!L14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X73" s="1">
+        <f>'d7-to-PEG-PEN'!M14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
+        <f>'d7-to-PEG-PEN'!N14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
+        <f>'d7-to-PEG-PEN'!O14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA73" s="1">
+        <f>'d7-to-PEG-PEN'!P14 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB73">
@@ -26460,23 +26683,23 @@
       </c>
       <c r="BP73">
         <f>'d7-to-d7'!I14 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BQ73">
         <f>'d7-to-d7'!J14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BR73">
         <f>'d7-to-d7'!K14 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BS73">
         <f>'d7-to-d7'!L14 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BT73">
         <f>'d7-to-d7'!M14 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <f>'d7-to-d7'!N14 * Gains!$H$8</f>
@@ -26484,11 +26707,11 @@
       </c>
       <c r="BV73">
         <f>'d7-to-d7'!O14 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BW73">
         <f>'d7-to-d7'!P14 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BX73">
         <f>'d7-to-PEG-PEN'!A14 * Gains!$I$8</f>
@@ -26555,67 +26778,67 @@
         <v>0</v>
       </c>
       <c r="CN73">
-        <f>'d7-to-PFL'!A14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A14</f>
         <v>0</v>
       </c>
       <c r="CO73">
-        <f>'d7-to-PFL'!B14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B14</f>
         <v>0</v>
       </c>
       <c r="CP73">
-        <f>'d7-to-PFL'!C14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C14</f>
         <v>0</v>
       </c>
       <c r="CQ73">
-        <f>'d7-to-PFL'!D14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D14</f>
         <v>0</v>
       </c>
       <c r="CR73">
-        <f>'d7-to-PFL'!E14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E14</f>
         <v>0</v>
       </c>
       <c r="CS73">
-        <f>'d7-to-PFL'!F14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F14</f>
         <v>0</v>
       </c>
       <c r="CT73">
-        <f>'d7-to-PFL'!G14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G14</f>
         <v>0</v>
       </c>
       <c r="CU73">
-        <f>'d7-to-PFL'!H14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H14</f>
         <v>0</v>
       </c>
       <c r="CV73">
-        <f>'d7-to-PFL'!I14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I14</f>
         <v>0</v>
       </c>
       <c r="CW73">
-        <f>'d7-to-PFL'!J14 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!J14</f>
+        <v>-1</v>
       </c>
       <c r="CX73">
-        <f>'d7-to-PFL'!K14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K14</f>
         <v>0</v>
       </c>
       <c r="CY73">
-        <f>'d7-to-PFL'!L14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L14</f>
         <v>0</v>
       </c>
       <c r="CZ73">
-        <f>'d7-to-PFL'!M14 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!M14</f>
+        <v>0</v>
       </c>
       <c r="DA73">
-        <f>'d7-to-PFL'!N14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N14</f>
         <v>0</v>
       </c>
       <c r="DB73">
-        <f>'d7-to-PFL'!O14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O14</f>
         <v>0</v>
       </c>
       <c r="DC73">
-        <f>'d7-to-PFL'!P14 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P14</f>
         <v>0</v>
       </c>
     </row>
@@ -26654,51 +26877,67 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
+        <f>'d7-to-PEG-PEN'!A15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M74" s="1">
+        <f>'d7-to-PEG-PEN'!B15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N74" s="1">
+        <f>'d7-to-PEG-PEN'!C15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O74" s="1">
+        <f>'d7-to-PEG-PEN'!D15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P74" s="1">
+        <f>'d7-to-PEG-PEN'!E15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q74" s="1">
+        <f>'d7-to-PEG-PEN'!F15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R74" s="1">
+        <f>'d7-to-PEG-PEN'!G15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S74" s="1">
+        <f>'d7-to-PEG-PEN'!H15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T74" s="1">
+        <f>'d7-to-PEG-PEN'!I15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U74" s="1">
+        <f>'d7-to-PEG-PEN'!J15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!K15 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="W74" s="1">
+        <f>'d7-to-PEG-PEN'!L15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="X74" s="1">
+        <f>'d7-to-PEG-PEN'!M15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
+        <f>'d7-to-PEG-PEN'!N15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z74" s="1">
+        <f>'d7-to-PEG-PEN'!O15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA74" s="1">
+        <f>'d7-to-PEG-PEN'!P15 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB74">
@@ -26863,27 +27102,27 @@
       </c>
       <c r="BP74">
         <f>'d7-to-d7'!I15 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BQ74">
         <f>'d7-to-d7'!J15 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BR74">
         <f>'d7-to-d7'!K15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BS74">
         <f>'d7-to-d7'!L15 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BT74">
         <f>'d7-to-d7'!M15 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BU74">
         <f>'d7-to-d7'!N15 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BV74">
         <f>'d7-to-d7'!O15 * Gains!$H$8</f>
@@ -26891,7 +27130,7 @@
       </c>
       <c r="BW74">
         <f>'d7-to-d7'!P15 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BX74">
         <f>'d7-to-PEG-PEN'!A15 * Gains!$I$8</f>
@@ -26958,67 +27197,67 @@
         <v>0</v>
       </c>
       <c r="CN74">
-        <f>'d7-to-PFL'!A15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A15</f>
         <v>0</v>
       </c>
       <c r="CO74">
-        <f>'d7-to-PFL'!B15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B15</f>
         <v>0</v>
       </c>
       <c r="CP74">
-        <f>'d7-to-PFL'!C15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C15</f>
         <v>0</v>
       </c>
       <c r="CQ74">
-        <f>'d7-to-PFL'!D15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D15</f>
         <v>0</v>
       </c>
       <c r="CR74">
-        <f>'d7-to-PFL'!E15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E15</f>
         <v>0</v>
       </c>
       <c r="CS74">
-        <f>'d7-to-PFL'!F15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F15</f>
         <v>0</v>
       </c>
       <c r="CT74">
-        <f>'d7-to-PFL'!G15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G15</f>
         <v>0</v>
       </c>
       <c r="CU74">
-        <f>'d7-to-PFL'!H15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H15</f>
         <v>0</v>
       </c>
       <c r="CV74">
-        <f>'d7-to-PFL'!I15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I15</f>
         <v>0</v>
       </c>
       <c r="CW74">
-        <f>'d7-to-PFL'!J15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J15</f>
         <v>0</v>
       </c>
       <c r="CX74">
-        <f>'d7-to-PFL'!K15 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!K15</f>
+        <v>-1</v>
       </c>
       <c r="CY74">
-        <f>'d7-to-PFL'!L15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!L15</f>
         <v>0</v>
       </c>
       <c r="CZ74">
-        <f>'d7-to-PFL'!M15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M15</f>
         <v>0</v>
       </c>
       <c r="DA74">
-        <f>'d7-to-PFL'!N15 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!N15</f>
+        <v>0</v>
       </c>
       <c r="DB74">
-        <f>'d7-to-PFL'!O15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!O15</f>
         <v>0</v>
       </c>
       <c r="DC74">
-        <f>'d7-to-PFL'!P15 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P15</f>
         <v>0</v>
       </c>
     </row>
@@ -27057,51 +27296,67 @@
         <v>0</v>
       </c>
       <c r="L75" s="1">
+        <f>'d7-to-PEG-PEN'!A16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="M75" s="1">
+        <f>'d7-to-PEG-PEN'!B16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="N75" s="1">
+        <f>'d7-to-PEG-PEN'!C16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="O75" s="1">
+        <f>'d7-to-PEG-PEN'!D16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="P75" s="1">
+        <f>'d7-to-PEG-PEN'!E16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Q75" s="1">
+        <f>'d7-to-PEG-PEN'!F16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="R75" s="1">
+        <f>'d7-to-PEG-PEN'!G16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="S75" s="1">
+        <f>'d7-to-PEG-PEN'!H16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="T75" s="1">
+        <f>'d7-to-PEG-PEN'!I16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="U75" s="1">
+        <f>'d7-to-PEG-PEN'!J16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="V75" s="1">
+        <f>'d7-to-PEG-PEN'!K16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!L16 * Gains!$E$8</f>
+        <v>-0.2</v>
       </c>
       <c r="X75" s="1">
+        <f>'d7-to-PEG-PEN'!M16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
+        <f>'d7-to-PEG-PEN'!N16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="Z75" s="1">
+        <f>'d7-to-PEG-PEN'!O16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AA75" s="1">
+        <f>'d7-to-PEG-PEN'!P16 * Gains!$E$8</f>
         <v>0</v>
       </c>
       <c r="AB75">
@@ -27266,31 +27521,31 @@
       </c>
       <c r="BP75">
         <f>'d7-to-d7'!I16 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BQ75">
         <f>'d7-to-d7'!J16 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BR75">
         <f>'d7-to-d7'!K16 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BS75">
         <f>'d7-to-d7'!L16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="BT75">
         <f>'d7-to-d7'!M16 * Gains!$H$8</f>
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="BU75">
         <f>'d7-to-d7'!N16 * Gains!$H$8</f>
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="BV75">
         <f>'d7-to-d7'!O16 * Gains!$H$8</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BW75">
         <f>'d7-to-d7'!P16 * Gains!$H$8</f>
@@ -27361,67 +27616,67 @@
         <v>0</v>
       </c>
       <c r="CN75">
-        <f>'d7-to-PFL'!A16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A16</f>
         <v>0</v>
       </c>
       <c r="CO75">
-        <f>'d7-to-PFL'!B16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!B16</f>
         <v>0</v>
       </c>
       <c r="CP75">
-        <f>'d7-to-PFL'!C16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!C16</f>
         <v>0</v>
       </c>
       <c r="CQ75">
-        <f>'d7-to-PFL'!D16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!D16</f>
         <v>0</v>
       </c>
       <c r="CR75">
-        <f>'d7-to-PFL'!E16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!E16</f>
         <v>0</v>
       </c>
       <c r="CS75">
-        <f>'d7-to-PFL'!F16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!F16</f>
         <v>0</v>
       </c>
       <c r="CT75">
-        <f>'d7-to-PFL'!G16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!G16</f>
         <v>0</v>
       </c>
       <c r="CU75">
-        <f>'d7-to-PFL'!H16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!H16</f>
         <v>0</v>
       </c>
       <c r="CV75">
-        <f>'d7-to-PFL'!I16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!I16</f>
         <v>0</v>
       </c>
       <c r="CW75">
-        <f>'d7-to-PFL'!J16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!J16</f>
         <v>0</v>
       </c>
       <c r="CX75">
-        <f>'d7-to-PFL'!K16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!K16</f>
         <v>0</v>
       </c>
       <c r="CY75">
-        <f>'d7-to-PFL'!L16 * Gains!$J$8</f>
-        <v>0</v>
+        <f>'d7-to-PEG-PEN'!L16</f>
+        <v>-1</v>
       </c>
       <c r="CZ75">
-        <f>'d7-to-PFL'!M16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!M16</f>
         <v>0</v>
       </c>
       <c r="DA75">
-        <f>'d7-to-PFL'!N16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!N16</f>
         <v>0</v>
       </c>
       <c r="DB75">
-        <f>'d7-to-PFL'!O16 * Gains!$J$8</f>
-        <v>0.5</v>
+        <f>'d7-to-PEG-PEN'!O16</f>
+        <v>0</v>
       </c>
       <c r="DC75">
-        <f>'d7-to-PFL'!P16 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!P16</f>
         <v>0</v>
       </c>
     </row>
@@ -27701,11 +27956,11 @@
       </c>
       <c r="CN76" s="3">
         <f>'PFN-to-PFL'!A1 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CO76" s="3">
         <f>'PFN-to-PFL'!B1 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CP76" s="3">
         <f>'PFN-to-PFL'!C1 * Gains!$J$9</f>
@@ -28044,11 +28299,11 @@
       </c>
       <c r="CO77" s="3">
         <f>'PFN-to-PFL'!B2 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CP77" s="3">
         <f>'PFN-to-PFL'!C2 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CQ77" s="3">
         <f>'PFN-to-PFL'!D2 * Gains!$J$9</f>
@@ -28387,11 +28642,11 @@
       </c>
       <c r="CP78" s="3">
         <f>'PFN-to-PFL'!C3 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CQ78" s="3">
         <f>'PFN-to-PFL'!D3 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR78" s="3">
         <f>'PFN-to-PFL'!E3 * Gains!$J$9</f>
@@ -28730,11 +28985,11 @@
       </c>
       <c r="CQ79" s="3">
         <f>'PFN-to-PFL'!D4 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CR79" s="3">
         <f>'PFN-to-PFL'!E4 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CS79" s="3">
         <f>'PFN-to-PFL'!F4 * Gains!$J$9</f>
@@ -29073,11 +29328,11 @@
       </c>
       <c r="CR80" s="3">
         <f>'PFN-to-PFL'!E5 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CS80" s="3">
         <f>'PFN-to-PFL'!F5 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CT80" s="3">
         <f>'PFN-to-PFL'!G5 * Gains!$J$9</f>
@@ -29416,11 +29671,11 @@
       </c>
       <c r="CS81" s="3">
         <f>'PFN-to-PFL'!F6 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CT81" s="3">
         <f>'PFN-to-PFL'!G6 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CU81" s="3">
         <f>'PFN-to-PFL'!H6 * Gains!$J$9</f>
@@ -29759,11 +30014,11 @@
       </c>
       <c r="CT82" s="3">
         <f>'PFN-to-PFL'!G7 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CU82" s="3">
         <f>'PFN-to-PFL'!H7 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CV82" s="3">
         <f>'PFN-to-PFL'!I7 * Gains!$J$9</f>
@@ -30074,7 +30329,7 @@
       </c>
       <c r="CN83" s="3">
         <f>'PFN-to-PFL'!A8 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CO83" s="3">
         <f>'PFN-to-PFL'!B8 * Gains!$J$9</f>
@@ -30102,7 +30357,7 @@
       </c>
       <c r="CU83" s="3">
         <f>'PFN-to-PFL'!H8 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CV83" s="3">
         <f>'PFN-to-PFL'!I8 * Gains!$J$9</f>
@@ -30445,7 +30700,7 @@
       </c>
       <c r="CV84" s="3">
         <f>'PFN-to-PFL'!I9 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CW84" s="3">
         <f>'PFN-to-PFL'!J9 * Gains!$J$9</f>
@@ -30473,7 +30728,7 @@
       </c>
       <c r="DC84" s="3">
         <f>'PFN-to-PFL'!P9 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:107" x14ac:dyDescent="0.25">
@@ -30784,11 +31039,11 @@
       </c>
       <c r="CV85" s="3">
         <f>'PFN-to-PFL'!I10 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CW85" s="3">
         <f>'PFN-to-PFL'!J10 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CX85" s="3">
         <f>'PFN-to-PFL'!K10 * Gains!$J$9</f>
@@ -31127,11 +31382,11 @@
       </c>
       <c r="CW86" s="3">
         <f>'PFN-to-PFL'!J11 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CX86" s="3">
         <f>'PFN-to-PFL'!K11 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CY86" s="3">
         <f>'PFN-to-PFL'!L11 * Gains!$J$9</f>
@@ -31470,11 +31725,11 @@
       </c>
       <c r="CX87" s="3">
         <f>'PFN-to-PFL'!K12 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CY87" s="3">
         <f>'PFN-to-PFL'!L12 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CZ87" s="3">
         <f>'PFN-to-PFL'!M12 * Gains!$J$9</f>
@@ -31813,11 +32068,11 @@
       </c>
       <c r="CY88" s="3">
         <f>'PFN-to-PFL'!L13 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CZ88" s="3">
         <f>'PFN-to-PFL'!M13 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DA88" s="3">
         <f>'PFN-to-PFL'!N13 * Gains!$J$9</f>
@@ -32156,11 +32411,11 @@
       </c>
       <c r="CZ89" s="3">
         <f>'PFN-to-PFL'!M14 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DA89" s="3">
         <f>'PFN-to-PFL'!N14 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DB89" s="3">
         <f>'PFN-to-PFL'!O14 * Gains!$J$9</f>
@@ -32499,11 +32754,11 @@
       </c>
       <c r="DA90" s="3">
         <f>'PFN-to-PFL'!N15 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DB90" s="3">
         <f>'PFN-to-PFL'!O15 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DC90" s="3">
         <f>'PFN-to-PFL'!P15 * Gains!$J$9</f>
@@ -32842,11 +33097,11 @@
       </c>
       <c r="DB91" s="3">
         <f>'PFN-to-PFL'!O16 * Gains!$J$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DC91" s="3">
         <f>'PFN-to-PFL'!P16 * Gains!$J$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:107" x14ac:dyDescent="0.25">
@@ -38051,8 +38306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF4CAB-DFCA-4B2E-871B-644CFA062EB7}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -38062,25 +38317,25 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="D1">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="F1">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="G1">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="H1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -38109,28 +38364,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="E2">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="G2">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="H2">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -38159,28 +38414,28 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="B3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="F3">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="H3">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -38209,28 +38464,28 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="B4">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="C4">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="G4">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -38259,28 +38514,28 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="B5">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="C5">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="D5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="H5">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -38309,28 +38564,28 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="C6">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="D6">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="E6">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -38359,28 +38614,28 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="B7">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="D7">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="E7">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="F7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -38409,25 +38664,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="C8">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="E8">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="F8">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="G8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -38486,25 +38741,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="L9">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="N9">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="O9">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="P9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -38533,28 +38788,28 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="M10">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="O10">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="P10">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -38583,28 +38838,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="J11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="N11">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="P11">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -38633,28 +38888,28 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="J12">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="K12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="O12">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -38683,28 +38938,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="J13">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="K13">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="L13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="P13">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -38733,28 +38988,28 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="K14">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="L14">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="M14">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -38783,28 +39038,28 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="J15">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="L15">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="M15">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="N15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -38833,32 +39088,56 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="K16">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>-0.30000001192092801</v>
       </c>
       <c r="M16">
-        <v>-0.6</v>
+        <v>-0.20000000298023199</v>
       </c>
       <c r="N16">
-        <v>-0.3</v>
+        <v>-0.10000000149011599</v>
       </c>
       <c r="O16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:P16">
+  <conditionalFormatting sqref="A1:H8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:H16 I1:P8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:P16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -38879,7 +39158,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39702,11 +39981,850 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722CCF5E-6291-4B55-97E1-5B0F37FC78E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FA346A-FD3D-4352-9D12-5901F95CB7F3}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="A1:P16"/>
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:XFD1048576 Q1:XFD16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7D76BB-BD2B-44F5-8B70-057DC9564C90}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -40528,1673 +41646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FA346A-FD3D-4352-9D12-5901F95CB7F3}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:P16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:XFD1048576 Q1:XFD16">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7D76BB-BD2B-44F5-8B70-057DC9564C90}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:P16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B235C1C0-8ECA-40B9-8956-029BB9127B5F}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -43021,7 +42473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2C0FFE-2165-4D18-9B6A-93566384B211}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -43853,7 +43305,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44311,7 +43763,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44397,7 +43849,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -44458,13 +43910,13 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -44487,7 +43939,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -44519,7 +43971,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -44550,8 +44002,8 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="E8">
+        <v>0.2</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -44598,7 +44050,7 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -46941,7 +46393,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -46951,10 +46403,12 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C1">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -46969,7 +46423,8 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -46998,16 +46453,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -47048,19 +46506,23 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -47101,19 +46563,23 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -47154,19 +46620,23 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -47207,19 +46677,23 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E6">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -47248,7 +46722,8 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -47260,16 +46735,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F7">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -47298,10 +46776,12 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -47313,10 +46793,12 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G8">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -47375,10 +46857,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -47390,10 +46874,12 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -47422,16 +46908,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -47443,7 +46932,8 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -47472,19 +46962,23 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J11">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -47525,19 +47019,23 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K12">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N12">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -47578,19 +47076,23 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L13">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O13">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -47631,19 +47133,23 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M14">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P14">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -47672,7 +47178,8 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -47684,16 +47191,19 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N15">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -47722,10 +47232,12 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J16">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -47737,10 +47249,12 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O16">
-        <v>0.9</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P16">
         <v>1</v>

--- a/Connectivity_matrices/Simplified_connectivity_matrices.xlsx
+++ b/Connectivity_matrices/Simplified_connectivity_matrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF0A20-F95A-4FDD-B8FC-41A2FE48AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94C1F05-F223-461D-8112-E7B80EE75407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
@@ -159,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DC107"/>
   <sheetViews>
-    <sheetView topLeftCell="E46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+    <sheetView topLeftCell="BL43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CK78" sqref="CK78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21331,67 +21331,67 @@
         <v>0</v>
       </c>
       <c r="CN60">
-        <f>'d7-to-PEG-PEN'!A1 * Gains!$J$8</f>
+        <f>'d7-to-PEG-PEN'!A1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO60">
-        <f>'d7-to-PEG-PEN'!B1</f>
+        <f>'d7-to-PEG-PEN'!B1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP60">
-        <f>'d7-to-PEG-PEN'!C1</f>
+        <f>'d7-to-PEG-PEN'!C1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ60">
-        <f>'d7-to-PEG-PEN'!D1</f>
+        <f>'d7-to-PEG-PEN'!D1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR60">
-        <f>'d7-to-PEG-PEN'!E1</f>
+        <f>'d7-to-PEG-PEN'!E1 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CS60">
-        <f>'d7-to-PEG-PEN'!F1</f>
+        <f>'d7-to-PEG-PEN'!F1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT60">
-        <f>'d7-to-PEG-PEN'!G1</f>
+        <f>'d7-to-PEG-PEN'!G1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU60">
-        <f>'d7-to-PEG-PEN'!H1</f>
+        <f>'d7-to-PEG-PEN'!H1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV60">
-        <f>'d7-to-PEG-PEN'!I1</f>
+        <f>'d7-to-PEG-PEN'!I1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW60">
-        <f>'d7-to-PEG-PEN'!J1</f>
+        <f>'d7-to-PEG-PEN'!J1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX60">
-        <f>'d7-to-PEG-PEN'!K1</f>
+        <f>'d7-to-PEG-PEN'!K1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY60">
-        <f>'d7-to-PEG-PEN'!L1</f>
+        <f>'d7-to-PEG-PEN'!L1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ60">
-        <f>'d7-to-PEG-PEN'!M1</f>
+        <f>'d7-to-PEG-PEN'!M1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA60">
-        <f>'d7-to-PEG-PEN'!N1</f>
+        <f>'d7-to-PEG-PEN'!N1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB60">
-        <f>'d7-to-PEG-PEN'!O1</f>
+        <f>'d7-to-PEG-PEN'!O1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC60">
-        <f>'d7-to-PEG-PEN'!P1</f>
+        <f>'d7-to-PEG-PEN'!P1 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -21750,67 +21750,67 @@
         <v>0</v>
       </c>
       <c r="CN61">
-        <f>'d7-to-PEG-PEN'!A2</f>
+        <f>'d7-to-PEG-PEN'!A2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO61">
-        <f>'d7-to-PEG-PEN'!B2</f>
+        <f>'d7-to-PEG-PEN'!B2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP61">
-        <f>'d7-to-PEG-PEN'!C2</f>
+        <f>'d7-to-PEG-PEN'!C2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ61">
-        <f>'d7-to-PEG-PEN'!D2</f>
+        <f>'d7-to-PEG-PEN'!D2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR61">
-        <f>'d7-to-PEG-PEN'!E2</f>
+        <f>'d7-to-PEG-PEN'!E2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS61">
-        <f>'d7-to-PEG-PEN'!F2</f>
+        <f>'d7-to-PEG-PEN'!F2 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CT61">
-        <f>'d7-to-PEG-PEN'!G2</f>
+        <f>'d7-to-PEG-PEN'!G2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU61">
-        <f>'d7-to-PEG-PEN'!H2</f>
+        <f>'d7-to-PEG-PEN'!H2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV61">
-        <f>'d7-to-PEG-PEN'!I2</f>
+        <f>'d7-to-PEG-PEN'!I2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW61">
-        <f>'d7-to-PEG-PEN'!J2</f>
+        <f>'d7-to-PEG-PEN'!J2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX61">
-        <f>'d7-to-PEG-PEN'!K2</f>
+        <f>'d7-to-PEG-PEN'!K2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY61">
-        <f>'d7-to-PEG-PEN'!L2</f>
+        <f>'d7-to-PEG-PEN'!L2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ61">
-        <f>'d7-to-PEG-PEN'!M2</f>
+        <f>'d7-to-PEG-PEN'!M2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA61">
-        <f>'d7-to-PEG-PEN'!N2</f>
+        <f>'d7-to-PEG-PEN'!N2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB61">
-        <f>'d7-to-PEG-PEN'!O2</f>
+        <f>'d7-to-PEG-PEN'!O2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC61">
-        <f>'d7-to-PEG-PEN'!P2</f>
+        <f>'d7-to-PEG-PEN'!P2 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -22169,67 +22169,67 @@
         <v>0</v>
       </c>
       <c r="CN62">
-        <f>'d7-to-PEG-PEN'!A3</f>
+        <f>'d7-to-PEG-PEN'!A3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO62">
-        <f>'d7-to-PEG-PEN'!B3</f>
+        <f>'d7-to-PEG-PEN'!B3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP62">
-        <f>'d7-to-PEG-PEN'!C3</f>
+        <f>'d7-to-PEG-PEN'!C3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ62">
-        <f>'d7-to-PEG-PEN'!D3</f>
+        <f>'d7-to-PEG-PEN'!D3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR62">
-        <f>'d7-to-PEG-PEN'!E3</f>
+        <f>'d7-to-PEG-PEN'!E3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS62">
-        <f>'d7-to-PEG-PEN'!F3</f>
+        <f>'d7-to-PEG-PEN'!F3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT62">
-        <f>'d7-to-PEG-PEN'!G3</f>
+        <f>'d7-to-PEG-PEN'!G3 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CU62">
-        <f>'d7-to-PEG-PEN'!H3</f>
+        <f>'d7-to-PEG-PEN'!H3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV62">
-        <f>'d7-to-PEG-PEN'!I3</f>
+        <f>'d7-to-PEG-PEN'!I3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW62">
-        <f>'d7-to-PEG-PEN'!J3</f>
+        <f>'d7-to-PEG-PEN'!J3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX62">
-        <f>'d7-to-PEG-PEN'!K3</f>
+        <f>'d7-to-PEG-PEN'!K3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY62">
-        <f>'d7-to-PEG-PEN'!L3</f>
+        <f>'d7-to-PEG-PEN'!L3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ62">
-        <f>'d7-to-PEG-PEN'!M3</f>
+        <f>'d7-to-PEG-PEN'!M3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA62">
-        <f>'d7-to-PEG-PEN'!N3</f>
+        <f>'d7-to-PEG-PEN'!N3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB62">
-        <f>'d7-to-PEG-PEN'!O3</f>
+        <f>'d7-to-PEG-PEN'!O3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC62">
-        <f>'d7-to-PEG-PEN'!P3</f>
+        <f>'d7-to-PEG-PEN'!P3 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -22588,67 +22588,67 @@
         <v>0</v>
       </c>
       <c r="CN63">
-        <f>'d7-to-PEG-PEN'!A4</f>
+        <f>'d7-to-PEG-PEN'!A4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO63">
-        <f>'d7-to-PEG-PEN'!B4</f>
+        <f>'d7-to-PEG-PEN'!B4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP63">
-        <f>'d7-to-PEG-PEN'!C4</f>
+        <f>'d7-to-PEG-PEN'!C4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ63">
-        <f>'d7-to-PEG-PEN'!D4</f>
+        <f>'d7-to-PEG-PEN'!D4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR63">
-        <f>'d7-to-PEG-PEN'!E4</f>
+        <f>'d7-to-PEG-PEN'!E4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS63">
-        <f>'d7-to-PEG-PEN'!F4</f>
+        <f>'d7-to-PEG-PEN'!F4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT63">
-        <f>'d7-to-PEG-PEN'!G4</f>
+        <f>'d7-to-PEG-PEN'!G4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU63">
-        <f>'d7-to-PEG-PEN'!H4</f>
+        <f>'d7-to-PEG-PEN'!H4 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CV63">
-        <f>'d7-to-PEG-PEN'!I4</f>
+        <f>'d7-to-PEG-PEN'!I4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW63">
-        <f>'d7-to-PEG-PEN'!J4</f>
+        <f>'d7-to-PEG-PEN'!J4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX63">
-        <f>'d7-to-PEG-PEN'!K4</f>
+        <f>'d7-to-PEG-PEN'!K4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY63">
-        <f>'d7-to-PEG-PEN'!L4</f>
+        <f>'d7-to-PEG-PEN'!L4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ63">
-        <f>'d7-to-PEG-PEN'!M4</f>
+        <f>'d7-to-PEG-PEN'!M4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA63">
-        <f>'d7-to-PEG-PEN'!N4</f>
+        <f>'d7-to-PEG-PEN'!N4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB63">
-        <f>'d7-to-PEG-PEN'!O4</f>
+        <f>'d7-to-PEG-PEN'!O4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC63">
-        <f>'d7-to-PEG-PEN'!P4</f>
+        <f>'d7-to-PEG-PEN'!P4 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -23007,67 +23007,67 @@
         <v>0</v>
       </c>
       <c r="CN64">
-        <f>'d7-to-PEG-PEN'!A5</f>
+        <f>'d7-to-PEG-PEN'!A5 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CO64">
-        <f>'d7-to-PEG-PEN'!B5</f>
+        <f>'d7-to-PEG-PEN'!B5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP64">
-        <f>'d7-to-PEG-PEN'!C5</f>
+        <f>'d7-to-PEG-PEN'!C5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ64">
-        <f>'d7-to-PEG-PEN'!D5</f>
+        <f>'d7-to-PEG-PEN'!D5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR64">
-        <f>'d7-to-PEG-PEN'!E5</f>
+        <f>'d7-to-PEG-PEN'!E5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS64">
-        <f>'d7-to-PEG-PEN'!F5</f>
+        <f>'d7-to-PEG-PEN'!F5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT64">
-        <f>'d7-to-PEG-PEN'!G5</f>
+        <f>'d7-to-PEG-PEN'!G5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU64">
-        <f>'d7-to-PEG-PEN'!H5</f>
+        <f>'d7-to-PEG-PEN'!H5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV64">
-        <f>'d7-to-PEG-PEN'!I5</f>
+        <f>'d7-to-PEG-PEN'!I5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW64">
-        <f>'d7-to-PEG-PEN'!J5</f>
+        <f>'d7-to-PEG-PEN'!J5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX64">
-        <f>'d7-to-PEG-PEN'!K5</f>
+        <f>'d7-to-PEG-PEN'!K5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY64">
-        <f>'d7-to-PEG-PEN'!L5</f>
+        <f>'d7-to-PEG-PEN'!L5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ64">
-        <f>'d7-to-PEG-PEN'!M5</f>
+        <f>'d7-to-PEG-PEN'!M5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA64">
-        <f>'d7-to-PEG-PEN'!N5</f>
+        <f>'d7-to-PEG-PEN'!N5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB64">
-        <f>'d7-to-PEG-PEN'!O5</f>
+        <f>'d7-to-PEG-PEN'!O5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC64">
-        <f>'d7-to-PEG-PEN'!P5</f>
+        <f>'d7-to-PEG-PEN'!P5 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -23426,67 +23426,67 @@
         <v>0</v>
       </c>
       <c r="CN65">
-        <f>'d7-to-PEG-PEN'!A6</f>
+        <f>'d7-to-PEG-PEN'!A6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO65">
-        <f>'d7-to-PEG-PEN'!B6</f>
+        <f>'d7-to-PEG-PEN'!B6 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CP65">
-        <f>'d7-to-PEG-PEN'!C6</f>
+        <f>'d7-to-PEG-PEN'!C6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ65">
-        <f>'d7-to-PEG-PEN'!D6</f>
+        <f>'d7-to-PEG-PEN'!D6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR65">
-        <f>'d7-to-PEG-PEN'!E6</f>
+        <f>'d7-to-PEG-PEN'!E6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS65">
-        <f>'d7-to-PEG-PEN'!F6</f>
+        <f>'d7-to-PEG-PEN'!F6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT65">
-        <f>'d7-to-PEG-PEN'!G6</f>
+        <f>'d7-to-PEG-PEN'!G6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU65">
-        <f>'d7-to-PEG-PEN'!H6</f>
+        <f>'d7-to-PEG-PEN'!H6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV65">
-        <f>'d7-to-PEG-PEN'!I6</f>
+        <f>'d7-to-PEG-PEN'!I6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW65">
-        <f>'d7-to-PEG-PEN'!J6</f>
+        <f>'d7-to-PEG-PEN'!J6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX65">
-        <f>'d7-to-PEG-PEN'!K6</f>
+        <f>'d7-to-PEG-PEN'!K6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY65">
-        <f>'d7-to-PEG-PEN'!L6</f>
+        <f>'d7-to-PEG-PEN'!L6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ65">
-        <f>'d7-to-PEG-PEN'!M6</f>
+        <f>'d7-to-PEG-PEN'!M6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA65">
-        <f>'d7-to-PEG-PEN'!N6</f>
+        <f>'d7-to-PEG-PEN'!N6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB65">
-        <f>'d7-to-PEG-PEN'!O6</f>
+        <f>'d7-to-PEG-PEN'!O6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC65">
-        <f>'d7-to-PEG-PEN'!P6</f>
+        <f>'d7-to-PEG-PEN'!P6 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -23845,67 +23845,67 @@
         <v>0</v>
       </c>
       <c r="CN66">
-        <f>'d7-to-PEG-PEN'!A7</f>
+        <f>'d7-to-PEG-PEN'!A7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO66">
-        <f>'d7-to-PEG-PEN'!B7</f>
+        <f>'d7-to-PEG-PEN'!B7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP66">
-        <f>'d7-to-PEG-PEN'!C7</f>
+        <f>'d7-to-PEG-PEN'!C7 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CQ66">
-        <f>'d7-to-PEG-PEN'!D7</f>
+        <f>'d7-to-PEG-PEN'!D7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR66">
-        <f>'d7-to-PEG-PEN'!E7</f>
+        <f>'d7-to-PEG-PEN'!E7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS66">
-        <f>'d7-to-PEG-PEN'!F7</f>
+        <f>'d7-to-PEG-PEN'!F7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT66">
-        <f>'d7-to-PEG-PEN'!G7</f>
+        <f>'d7-to-PEG-PEN'!G7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU66">
-        <f>'d7-to-PEG-PEN'!H7</f>
+        <f>'d7-to-PEG-PEN'!H7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV66">
-        <f>'d7-to-PEG-PEN'!I7</f>
+        <f>'d7-to-PEG-PEN'!I7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW66">
-        <f>'d7-to-PEG-PEN'!J7</f>
+        <f>'d7-to-PEG-PEN'!J7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX66">
-        <f>'d7-to-PEG-PEN'!K7</f>
+        <f>'d7-to-PEG-PEN'!K7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY66">
-        <f>'d7-to-PEG-PEN'!L7</f>
+        <f>'d7-to-PEG-PEN'!L7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ66">
-        <f>'d7-to-PEG-PEN'!M7</f>
+        <f>'d7-to-PEG-PEN'!M7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA66">
-        <f>'d7-to-PEG-PEN'!N7</f>
+        <f>'d7-to-PEG-PEN'!N7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB66">
-        <f>'d7-to-PEG-PEN'!O7</f>
+        <f>'d7-to-PEG-PEN'!O7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC66">
-        <f>'d7-to-PEG-PEN'!P7</f>
+        <f>'d7-to-PEG-PEN'!P7 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -24264,67 +24264,67 @@
         <v>0</v>
       </c>
       <c r="CN67">
-        <f>'d7-to-PEG-PEN'!A8</f>
+        <f>'d7-to-PEG-PEN'!A8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO67">
-        <f>'d7-to-PEG-PEN'!B8</f>
+        <f>'d7-to-PEG-PEN'!B8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP67">
-        <f>'d7-to-PEG-PEN'!C8</f>
+        <f>'d7-to-PEG-PEN'!C8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ67">
-        <f>'d7-to-PEG-PEN'!D8</f>
+        <f>'d7-to-PEG-PEN'!D8 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CR67">
-        <f>'d7-to-PEG-PEN'!E8</f>
+        <f>'d7-to-PEG-PEN'!E8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS67">
-        <f>'d7-to-PEG-PEN'!F8</f>
+        <f>'d7-to-PEG-PEN'!F8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT67">
-        <f>'d7-to-PEG-PEN'!G8</f>
+        <f>'d7-to-PEG-PEN'!G8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU67">
-        <f>'d7-to-PEG-PEN'!H8</f>
+        <f>'d7-to-PEG-PEN'!H8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV67">
-        <f>'d7-to-PEG-PEN'!I8</f>
+        <f>'d7-to-PEG-PEN'!I8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW67">
-        <f>'d7-to-PEG-PEN'!J8</f>
+        <f>'d7-to-PEG-PEN'!J8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX67">
-        <f>'d7-to-PEG-PEN'!K8</f>
+        <f>'d7-to-PEG-PEN'!K8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY67">
-        <f>'d7-to-PEG-PEN'!L8</f>
+        <f>'d7-to-PEG-PEN'!L8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ67">
-        <f>'d7-to-PEG-PEN'!M8</f>
+        <f>'d7-to-PEG-PEN'!M8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA67">
-        <f>'d7-to-PEG-PEN'!N8</f>
+        <f>'d7-to-PEG-PEN'!N8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB67">
-        <f>'d7-to-PEG-PEN'!O8</f>
+        <f>'d7-to-PEG-PEN'!O8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC67">
-        <f>'d7-to-PEG-PEN'!P8</f>
+        <f>'d7-to-PEG-PEN'!P8 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -24683,67 +24683,67 @@
         <v>0</v>
       </c>
       <c r="CN68">
-        <f>'d7-to-PEG-PEN'!A9</f>
+        <f>'d7-to-PEG-PEN'!A9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO68">
-        <f>'d7-to-PEG-PEN'!B9</f>
+        <f>'d7-to-PEG-PEN'!B9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP68">
-        <f>'d7-to-PEG-PEN'!C9</f>
+        <f>'d7-to-PEG-PEN'!C9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ68">
-        <f>'d7-to-PEG-PEN'!D9</f>
+        <f>'d7-to-PEG-PEN'!D9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR68">
-        <f>'d7-to-PEG-PEN'!E9</f>
+        <f>'d7-to-PEG-PEN'!E9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS68">
-        <f>'d7-to-PEG-PEN'!F9</f>
+        <f>'d7-to-PEG-PEN'!F9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT68">
-        <f>'d7-to-PEG-PEN'!G9</f>
+        <f>'d7-to-PEG-PEN'!G9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU68">
-        <f>'d7-to-PEG-PEN'!H9</f>
+        <f>'d7-to-PEG-PEN'!H9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV68">
-        <f>'d7-to-PEG-PEN'!I9</f>
+        <f>'d7-to-PEG-PEN'!I9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW68">
-        <f>'d7-to-PEG-PEN'!J9</f>
+        <f>'d7-to-PEG-PEN'!J9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX68">
-        <f>'d7-to-PEG-PEN'!K9</f>
+        <f>'d7-to-PEG-PEN'!K9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY68">
-        <f>'d7-to-PEG-PEN'!L9</f>
+        <f>'d7-to-PEG-PEN'!L9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ68">
-        <f>'d7-to-PEG-PEN'!M9</f>
+        <f>'d7-to-PEG-PEN'!M9 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="DA68">
-        <f>'d7-to-PEG-PEN'!N9</f>
+        <f>'d7-to-PEG-PEN'!N9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB68">
-        <f>'d7-to-PEG-PEN'!O9</f>
+        <f>'d7-to-PEG-PEN'!O9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC68">
-        <f>'d7-to-PEG-PEN'!P9</f>
+        <f>'d7-to-PEG-PEN'!P9 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -25102,67 +25102,67 @@
         <v>0</v>
       </c>
       <c r="CN69">
-        <f>'d7-to-PEG-PEN'!A10</f>
+        <f>'d7-to-PEG-PEN'!A10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO69">
-        <f>'d7-to-PEG-PEN'!B10</f>
+        <f>'d7-to-PEG-PEN'!B10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP69">
-        <f>'d7-to-PEG-PEN'!C10</f>
+        <f>'d7-to-PEG-PEN'!C10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ69">
-        <f>'d7-to-PEG-PEN'!D10</f>
+        <f>'d7-to-PEG-PEN'!D10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR69">
-        <f>'d7-to-PEG-PEN'!E10</f>
+        <f>'d7-to-PEG-PEN'!E10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS69">
-        <f>'d7-to-PEG-PEN'!F10</f>
+        <f>'d7-to-PEG-PEN'!F10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT69">
-        <f>'d7-to-PEG-PEN'!G10</f>
+        <f>'d7-to-PEG-PEN'!G10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU69">
-        <f>'d7-to-PEG-PEN'!H10</f>
+        <f>'d7-to-PEG-PEN'!H10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV69">
-        <f>'d7-to-PEG-PEN'!I10</f>
+        <f>'d7-to-PEG-PEN'!I10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW69">
-        <f>'d7-to-PEG-PEN'!J10</f>
+        <f>'d7-to-PEG-PEN'!J10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX69">
-        <f>'d7-to-PEG-PEN'!K10</f>
+        <f>'d7-to-PEG-PEN'!K10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY69">
-        <f>'d7-to-PEG-PEN'!L10</f>
+        <f>'d7-to-PEG-PEN'!L10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ69">
-        <f>'d7-to-PEG-PEN'!M10</f>
+        <f>'d7-to-PEG-PEN'!M10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA69">
-        <f>'d7-to-PEG-PEN'!N10</f>
+        <f>'d7-to-PEG-PEN'!N10 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="DB69">
-        <f>'d7-to-PEG-PEN'!O10</f>
+        <f>'d7-to-PEG-PEN'!O10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC69">
-        <f>'d7-to-PEG-PEN'!P10</f>
+        <f>'d7-to-PEG-PEN'!P10 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -25521,67 +25521,67 @@
         <v>0</v>
       </c>
       <c r="CN70">
-        <f>'d7-to-PEG-PEN'!A11</f>
+        <f>'d7-to-PEG-PEN'!A11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO70">
-        <f>'d7-to-PEG-PEN'!B11</f>
+        <f>'d7-to-PEG-PEN'!B11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP70">
-        <f>'d7-to-PEG-PEN'!C11</f>
+        <f>'d7-to-PEG-PEN'!C11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ70">
-        <f>'d7-to-PEG-PEN'!D11</f>
+        <f>'d7-to-PEG-PEN'!D11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR70">
-        <f>'d7-to-PEG-PEN'!E11</f>
+        <f>'d7-to-PEG-PEN'!E11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS70">
-        <f>'d7-to-PEG-PEN'!F11</f>
+        <f>'d7-to-PEG-PEN'!F11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT70">
-        <f>'d7-to-PEG-PEN'!G11</f>
+        <f>'d7-to-PEG-PEN'!G11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU70">
-        <f>'d7-to-PEG-PEN'!H11</f>
+        <f>'d7-to-PEG-PEN'!H11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV70">
-        <f>'d7-to-PEG-PEN'!I11</f>
+        <f>'d7-to-PEG-PEN'!I11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW70">
-        <f>'d7-to-PEG-PEN'!J11</f>
+        <f>'d7-to-PEG-PEN'!J11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX70">
-        <f>'d7-to-PEG-PEN'!K11</f>
+        <f>'d7-to-PEG-PEN'!K11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY70">
-        <f>'d7-to-PEG-PEN'!L11</f>
+        <f>'d7-to-PEG-PEN'!L11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ70">
-        <f>'d7-to-PEG-PEN'!M11</f>
+        <f>'d7-to-PEG-PEN'!M11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA70">
-        <f>'d7-to-PEG-PEN'!N11</f>
+        <f>'d7-to-PEG-PEN'!N11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB70">
-        <f>'d7-to-PEG-PEN'!O11</f>
+        <f>'d7-to-PEG-PEN'!O11 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="DC70">
-        <f>'d7-to-PEG-PEN'!P11</f>
+        <f>'d7-to-PEG-PEN'!P11 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -25940,67 +25940,67 @@
         <v>0</v>
       </c>
       <c r="CN71">
-        <f>'d7-to-PEG-PEN'!A12</f>
+        <f>'d7-to-PEG-PEN'!A12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO71">
-        <f>'d7-to-PEG-PEN'!B12</f>
+        <f>'d7-to-PEG-PEN'!B12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP71">
-        <f>'d7-to-PEG-PEN'!C12</f>
+        <f>'d7-to-PEG-PEN'!C12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ71">
-        <f>'d7-to-PEG-PEN'!D12</f>
+        <f>'d7-to-PEG-PEN'!D12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR71">
-        <f>'d7-to-PEG-PEN'!E12</f>
+        <f>'d7-to-PEG-PEN'!E12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS71">
-        <f>'d7-to-PEG-PEN'!F12</f>
+        <f>'d7-to-PEG-PEN'!F12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT71">
-        <f>'d7-to-PEG-PEN'!G12</f>
+        <f>'d7-to-PEG-PEN'!G12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU71">
-        <f>'d7-to-PEG-PEN'!H12</f>
+        <f>'d7-to-PEG-PEN'!H12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV71">
-        <f>'d7-to-PEG-PEN'!I12</f>
+        <f>'d7-to-PEG-PEN'!I12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW71">
-        <f>'d7-to-PEG-PEN'!J12</f>
+        <f>'d7-to-PEG-PEN'!J12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX71">
-        <f>'d7-to-PEG-PEN'!K12</f>
+        <f>'d7-to-PEG-PEN'!K12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY71">
-        <f>'d7-to-PEG-PEN'!L12</f>
+        <f>'d7-to-PEG-PEN'!L12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ71">
-        <f>'d7-to-PEG-PEN'!M12</f>
+        <f>'d7-to-PEG-PEN'!M12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA71">
-        <f>'d7-to-PEG-PEN'!N12</f>
+        <f>'d7-to-PEG-PEN'!N12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB71">
-        <f>'d7-to-PEG-PEN'!O12</f>
+        <f>'d7-to-PEG-PEN'!O12 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC71">
-        <f>'d7-to-PEG-PEN'!P12</f>
+        <f>'d7-to-PEG-PEN'!P12 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
     </row>
@@ -26359,67 +26359,67 @@
         <v>0</v>
       </c>
       <c r="CN72">
-        <f>'d7-to-PEG-PEN'!A13</f>
+        <f>'d7-to-PEG-PEN'!A13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO72">
-        <f>'d7-to-PEG-PEN'!B13</f>
+        <f>'d7-to-PEG-PEN'!B13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP72">
-        <f>'d7-to-PEG-PEN'!C13</f>
+        <f>'d7-to-PEG-PEN'!C13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ72">
-        <f>'d7-to-PEG-PEN'!D13</f>
+        <f>'d7-to-PEG-PEN'!D13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR72">
-        <f>'d7-to-PEG-PEN'!E13</f>
+        <f>'d7-to-PEG-PEN'!E13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS72">
-        <f>'d7-to-PEG-PEN'!F13</f>
+        <f>'d7-to-PEG-PEN'!F13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT72">
-        <f>'d7-to-PEG-PEN'!G13</f>
+        <f>'d7-to-PEG-PEN'!G13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU72">
-        <f>'d7-to-PEG-PEN'!H13</f>
+        <f>'d7-to-PEG-PEN'!H13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV72">
-        <f>'d7-to-PEG-PEN'!I13</f>
+        <f>'d7-to-PEG-PEN'!I13 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CW72">
-        <f>'d7-to-PEG-PEN'!J13</f>
+        <f>'d7-to-PEG-PEN'!J13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX72">
-        <f>'d7-to-PEG-PEN'!K13</f>
+        <f>'d7-to-PEG-PEN'!K13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY72">
-        <f>'d7-to-PEG-PEN'!L13</f>
+        <f>'d7-to-PEG-PEN'!L13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ72">
-        <f>'d7-to-PEG-PEN'!M13</f>
+        <f>'d7-to-PEG-PEN'!M13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA72">
-        <f>'d7-to-PEG-PEN'!N13</f>
+        <f>'d7-to-PEG-PEN'!N13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB72">
-        <f>'d7-to-PEG-PEN'!O13</f>
+        <f>'d7-to-PEG-PEN'!O13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC72">
-        <f>'d7-to-PEG-PEN'!P13</f>
+        <f>'d7-to-PEG-PEN'!P13 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -26778,67 +26778,67 @@
         <v>0</v>
       </c>
       <c r="CN73">
-        <f>'d7-to-PEG-PEN'!A14</f>
+        <f>'d7-to-PEG-PEN'!A14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO73">
-        <f>'d7-to-PEG-PEN'!B14</f>
+        <f>'d7-to-PEG-PEN'!B14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP73">
-        <f>'d7-to-PEG-PEN'!C14</f>
+        <f>'d7-to-PEG-PEN'!C14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ73">
-        <f>'d7-to-PEG-PEN'!D14</f>
+        <f>'d7-to-PEG-PEN'!D14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR73">
-        <f>'d7-to-PEG-PEN'!E14</f>
+        <f>'d7-to-PEG-PEN'!E14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS73">
-        <f>'d7-to-PEG-PEN'!F14</f>
+        <f>'d7-to-PEG-PEN'!F14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT73">
-        <f>'d7-to-PEG-PEN'!G14</f>
+        <f>'d7-to-PEG-PEN'!G14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU73">
-        <f>'d7-to-PEG-PEN'!H14</f>
+        <f>'d7-to-PEG-PEN'!H14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV73">
-        <f>'d7-to-PEG-PEN'!I14</f>
+        <f>'d7-to-PEG-PEN'!I14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW73">
-        <f>'d7-to-PEG-PEN'!J14</f>
+        <f>'d7-to-PEG-PEN'!J14 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CX73">
-        <f>'d7-to-PEG-PEN'!K14</f>
+        <f>'d7-to-PEG-PEN'!K14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY73">
-        <f>'d7-to-PEG-PEN'!L14</f>
+        <f>'d7-to-PEG-PEN'!L14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ73">
-        <f>'d7-to-PEG-PEN'!M14</f>
+        <f>'d7-to-PEG-PEN'!M14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA73">
-        <f>'d7-to-PEG-PEN'!N14</f>
+        <f>'d7-to-PEG-PEN'!N14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB73">
-        <f>'d7-to-PEG-PEN'!O14</f>
+        <f>'d7-to-PEG-PEN'!O14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC73">
-        <f>'d7-to-PEG-PEN'!P14</f>
+        <f>'d7-to-PEG-PEN'!P14 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -27197,67 +27197,67 @@
         <v>0</v>
       </c>
       <c r="CN74">
-        <f>'d7-to-PEG-PEN'!A15</f>
+        <f>'d7-to-PEG-PEN'!A15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO74">
-        <f>'d7-to-PEG-PEN'!B15</f>
+        <f>'d7-to-PEG-PEN'!B15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP74">
-        <f>'d7-to-PEG-PEN'!C15</f>
+        <f>'d7-to-PEG-PEN'!C15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ74">
-        <f>'d7-to-PEG-PEN'!D15</f>
+        <f>'d7-to-PEG-PEN'!D15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR74">
-        <f>'d7-to-PEG-PEN'!E15</f>
+        <f>'d7-to-PEG-PEN'!E15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS74">
-        <f>'d7-to-PEG-PEN'!F15</f>
+        <f>'d7-to-PEG-PEN'!F15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT74">
-        <f>'d7-to-PEG-PEN'!G15</f>
+        <f>'d7-to-PEG-PEN'!G15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU74">
-        <f>'d7-to-PEG-PEN'!H15</f>
+        <f>'d7-to-PEG-PEN'!H15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV74">
-        <f>'d7-to-PEG-PEN'!I15</f>
+        <f>'d7-to-PEG-PEN'!I15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW74">
-        <f>'d7-to-PEG-PEN'!J15</f>
+        <f>'d7-to-PEG-PEN'!J15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX74">
-        <f>'d7-to-PEG-PEN'!K15</f>
+        <f>'d7-to-PEG-PEN'!K15 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CY74">
-        <f>'d7-to-PEG-PEN'!L15</f>
+        <f>'d7-to-PEG-PEN'!L15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CZ74">
-        <f>'d7-to-PEG-PEN'!M15</f>
+        <f>'d7-to-PEG-PEN'!M15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA74">
-        <f>'d7-to-PEG-PEN'!N15</f>
+        <f>'d7-to-PEG-PEN'!N15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB74">
-        <f>'d7-to-PEG-PEN'!O15</f>
+        <f>'d7-to-PEG-PEN'!O15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC74">
-        <f>'d7-to-PEG-PEN'!P15</f>
+        <f>'d7-to-PEG-PEN'!P15 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -27616,67 +27616,67 @@
         <v>0</v>
       </c>
       <c r="CN75">
-        <f>'d7-to-PEG-PEN'!A16</f>
+        <f>'d7-to-PEG-PEN'!A16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CO75">
-        <f>'d7-to-PEG-PEN'!B16</f>
+        <f>'d7-to-PEG-PEN'!B16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CP75">
-        <f>'d7-to-PEG-PEN'!C16</f>
+        <f>'d7-to-PEG-PEN'!C16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CQ75">
-        <f>'d7-to-PEG-PEN'!D16</f>
+        <f>'d7-to-PEG-PEN'!D16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CR75">
-        <f>'d7-to-PEG-PEN'!E16</f>
+        <f>'d7-to-PEG-PEN'!E16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CS75">
-        <f>'d7-to-PEG-PEN'!F16</f>
+        <f>'d7-to-PEG-PEN'!F16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CT75">
-        <f>'d7-to-PEG-PEN'!G16</f>
+        <f>'d7-to-PEG-PEN'!G16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CU75">
-        <f>'d7-to-PEG-PEN'!H16</f>
+        <f>'d7-to-PEG-PEN'!H16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CV75">
-        <f>'d7-to-PEG-PEN'!I16</f>
+        <f>'d7-to-PEG-PEN'!I16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CW75">
-        <f>'d7-to-PEG-PEN'!J16</f>
+        <f>'d7-to-PEG-PEN'!J16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CX75">
-        <f>'d7-to-PEG-PEN'!K16</f>
+        <f>'d7-to-PEG-PEN'!K16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="CY75">
-        <f>'d7-to-PEG-PEN'!L16</f>
+        <f>'d7-to-PEG-PEN'!L16 *  Gains!$J$8</f>
         <v>-1</v>
       </c>
       <c r="CZ75">
-        <f>'d7-to-PEG-PEN'!M16</f>
+        <f>'d7-to-PEG-PEN'!M16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DA75">
-        <f>'d7-to-PEG-PEN'!N16</f>
+        <f>'d7-to-PEG-PEN'!N16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DB75">
-        <f>'d7-to-PEG-PEN'!O16</f>
+        <f>'d7-to-PEG-PEN'!O16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
       <c r="DC75">
-        <f>'d7-to-PEG-PEN'!P16</f>
+        <f>'d7-to-PEG-PEN'!P16 *  Gains!$J$8</f>
         <v>0</v>
       </c>
     </row>
@@ -43763,7 +43763,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44018,7 +44018,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
